--- a/data/hotels_by_city/Denver/Denver_shard_135.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_135.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="885">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33329-d1465045-Reviews-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Holiday-Inn-Express-Hotel-And-Suites-Brighton.h2758871.Hotel-Information?chkin=4%2F22%2F2018&amp;chkout=4%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=7480f861-04ed-4bcd-bab4-e14ae45e84dbHWRQ1523493182092&amp;regionId=178254&amp;vip=false&amp;c=69b20797-c720-4b89-b2f9-5d34e84cd93e&amp;mctc=9&amp;exp_dp=136.99&amp;exp_ts=1523493190184&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,2545 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r591205094-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33329</t>
+  </si>
+  <si>
+    <t>1465045</t>
+  </si>
+  <si>
+    <t>591205094</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel- Unique Salt Water Pool</t>
+  </si>
+  <si>
+    <t>Stayed there years ago and it was nice. It had a unique Salt Water Pool, I didnt notice much difference from a regular pool other than maybe less noticeable chlorine smell and feel. Other amenities seemed adequate. Location was nice in Brighton and near a Walmart I believe.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r583503826-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>583503826</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Pretty shower</t>
+  </si>
+  <si>
+    <t>Comfortable room, with a really pretty shower and bathroom, staff was nice, balcony rooms are worth the higher price. It was really close to restaurants and shopping while being right off the interstate. The breakfast had a lot of options.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Comfortable room, with a really pretty shower and bathroom, staff was nice, balcony rooms are worth the higher price. It was really close to restaurants and shopping while being right off the interstate. The breakfast had a lot of options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r527680982-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>527680982</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t>very comfortable</t>
+  </si>
+  <si>
+    <t>We had a pleasant room and a comfortable bed. The place was quiet and we slept well. Breakfast was very good. Pancakes, Cinnamon rolls, eggs, turkey sausage, bacon, fruit and cereal. Would stay here again. Several places to eat close by as well as a Super Target. Have to go a little further for a gas station.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2017</t>
+  </si>
+  <si>
+    <t>We had a pleasant room and a comfortable bed. The place was quiet and we slept well. Breakfast was very good. Pancakes, Cinnamon rolls, eggs, turkey sausage, bacon, fruit and cereal. Would stay here again. Several places to eat close by as well as a Super Target. Have to go a little further for a gas station.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r520991280-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>520991280</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>EXACTLY WHAT WE NEEDED</t>
+  </si>
+  <si>
+    <t>After a ten hour trans-Atlantic flight, queuing to pass through the US Immigration and Customs, catching the shuttle bus to the Avis rental centre, collecting our car and driving to Brighton CO, the Holiday Inn Express in Brighton CO was exactly what we needed. We checked in quickly and efficiently and made our way to our room. By European standards our two queen-bedded room was large, quiet and well-equipped.  We both slept well. Breakfast was fine. The hotel was, obviously, fairly new (the hotel's address did not show on our very old satnav) and the hotel staff were very welcoming and most helpful. The HIE hotel was excellent value ($156.80 including tax) - very much cheaper than the hotels nearer Denver International Airport. In our opinion, the hotel certainly deserves its 1/8 ranking on TripAdvisor.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded September 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2017</t>
+  </si>
+  <si>
+    <t>After a ten hour trans-Atlantic flight, queuing to pass through the US Immigration and Customs, catching the shuttle bus to the Avis rental centre, collecting our car and driving to Brighton CO, the Holiday Inn Express in Brighton CO was exactly what we needed. We checked in quickly and efficiently and made our way to our room. By European standards our two queen-bedded room was large, quiet and well-equipped.  We both slept well. Breakfast was fine. The hotel was, obviously, fairly new (the hotel's address did not show on our very old satnav) and the hotel staff were very welcoming and most helpful. The HIE hotel was excellent value ($156.80 including tax) - very much cheaper than the hotels nearer Denver International Airport. In our opinion, the hotel certainly deserves its 1/8 ranking on TripAdvisor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r519537870-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>519537870</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>Beautiful and comfortable</t>
+  </si>
+  <si>
+    <t>This was a very nice hotel with comfortable beds and a great selection of pillows that aren't flat and squished. It's only about 20 minutes from the airport yet there is no airport noise. The location is more convenient than other Denver locations if you are visiting Rocky Mountain National Park.Breakfast wasn't the best but not the worse either. Very limited healthy choices.MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded September 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2017</t>
+  </si>
+  <si>
+    <t>This was a very nice hotel with comfortable beds and a great selection of pillows that aren't flat and squished. It's only about 20 minutes from the airport yet there is no airport noise. The location is more convenient than other Denver locations if you are visiting Rocky Mountain National Park.Breakfast wasn't the best but not the worse either. Very limited healthy choices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r517409728-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>517409728</t>
+  </si>
+  <si>
+    <t>08/25/2017</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>We were on a road trip passing through. Stayed here for 1 night. Exceeded our expectations! Easy access to the highway, very clean, spacious and comfortable rooms with a good breakfast. Staff was very friendly. We got a 3rd fl room and the balcony was a great surprise!!! If in the area we will definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded August 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2017</t>
+  </si>
+  <si>
+    <t>We were on a road trip passing through. Stayed here for 1 night. Exceeded our expectations! Easy access to the highway, very clean, spacious and comfortable rooms with a good breakfast. Staff was very friendly. We got a 3rd fl room and the balcony was a great surprise!!! If in the area we will definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r499363848-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>499363848</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Loved this hotel. Got a beautiful extended king suite. Huge room. Nice and clean. New mattresses. This room just worked perfect for our stay as a family of six. Staff was great too. Nice breakfast spread. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Loved this hotel. Got a beautiful extended king suite. Huge room. Nice and clean. New mattresses. This room just worked perfect for our stay as a family of six. Staff was great too. Nice breakfast spread. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r494352960-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>494352960</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Great stop for a road trip</t>
+  </si>
+  <si>
+    <t>Very clean hotel, free breakfast. The pool had toys for the kids. There were a lot of great restaurants near by. Hotel staff was courteous &amp; friendly. We were hauling a trailer &amp; there was plenty of parking. I would certainly stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Very clean hotel, free breakfast. The pool had toys for the kids. There were a lot of great restaurants near by. Hotel staff was courteous &amp; friendly. We were hauling a trailer &amp; there was plenty of parking. I would certainly stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r482226491-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>482226491</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>No balcony for me !</t>
+  </si>
+  <si>
+    <t>Don't be fouled by the other reviews, they have very few balcony rooms,  I'm a top notch club member and was unable to score a balcony room or even a King room.  Now, back to my 4 out of 5 review ... It is a nice hotel with an A+ breakfast in a very new developing location, but it does have issues and most could be corrected.  First, the picture displayed is really taken from the candlewood suites right across the parking lot and makes the hotel look grander than it really is, nice trick ihg. The second point to know, is that it is very difficult to reach the hotel from the airport unless you take the Toll road, which in my case cost $10 each way which included additional rental car fees.  However, you can avoid these fees by using a path that is currently under construction and a slower travel time route. Third, the indoor pool is way to cold to use, in fact during my 4 day visit I saw no one even attempt to swim in it. Forth, the bath tubs are very slick for shower use since their non-slip additive has worn off.  Fifth, the beds were nice, but they have not been rotated correctly since both beds were softer on the side next to the clock.  Sixth, speaking of clocks, the alarm system on my clock did not work correctly.  You could turn...Don't be fouled by the other reviews, they have very few balcony rooms,  I'm a top notch club member and was unable to score a balcony room or even a King room.  Now, back to my 4 out of 5 review ... It is a nice hotel with an A+ breakfast in a very new developing location, but it does have issues and most could be corrected.  First, the picture displayed is really taken from the candlewood suites right across the parking lot and makes the hotel look grander than it really is, nice trick ihg. The second point to know, is that it is very difficult to reach the hotel from the airport unless you take the Toll road, which in my case cost $10 each way which included additional rental car fees.  However, you can avoid these fees by using a path that is currently under construction and a slower travel time route. Third, the indoor pool is way to cold to use, in fact during my 4 day visit I saw no one even attempt to swim in it. Forth, the bath tubs are very slick for shower use since their non-slip additive has worn off.  Fifth, the beds were nice, but they have not been rotated correctly since both beds were softer on the side next to the clock.  Sixth, speaking of clocks, the alarm system on my clock did not work correctly.  You could turn the alarm on/off, but the alarm time did not adjust as indicated and was stuck on 6 am.  However, my biggest issue was the way the ac was tied into a motion sensor mounted above the door.  After studying the setup for many nights, I decided the motion sensor turn off the ac unit when it thinks no one is in the room to save money.  Here's the problem, the sensor is mounted in the wrong location and only covers the hallway of the room and not the sleeping area.  Hence, the ac will shutdown every night since guests are sleeping and not walking around.  As a result, the temp will increase at night until you wake up and walk toward the door, at that point the ac appears to kick back on to normal mode.  Rise and repeat.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Don't be fouled by the other reviews, they have very few balcony rooms,  I'm a top notch club member and was unable to score a balcony room or even a King room.  Now, back to my 4 out of 5 review ... It is a nice hotel with an A+ breakfast in a very new developing location, but it does have issues and most could be corrected.  First, the picture displayed is really taken from the candlewood suites right across the parking lot and makes the hotel look grander than it really is, nice trick ihg. The second point to know, is that it is very difficult to reach the hotel from the airport unless you take the Toll road, which in my case cost $10 each way which included additional rental car fees.  However, you can avoid these fees by using a path that is currently under construction and a slower travel time route. Third, the indoor pool is way to cold to use, in fact during my 4 day visit I saw no one even attempt to swim in it. Forth, the bath tubs are very slick for shower use since their non-slip additive has worn off.  Fifth, the beds were nice, but they have not been rotated correctly since both beds were softer on the side next to the clock.  Sixth, speaking of clocks, the alarm system on my clock did not work correctly.  You could turn...Don't be fouled by the other reviews, they have very few balcony rooms,  I'm a top notch club member and was unable to score a balcony room or even a King room.  Now, back to my 4 out of 5 review ... It is a nice hotel with an A+ breakfast in a very new developing location, but it does have issues and most could be corrected.  First, the picture displayed is really taken from the candlewood suites right across the parking lot and makes the hotel look grander than it really is, nice trick ihg. The second point to know, is that it is very difficult to reach the hotel from the airport unless you take the Toll road, which in my case cost $10 each way which included additional rental car fees.  However, you can avoid these fees by using a path that is currently under construction and a slower travel time route. Third, the indoor pool is way to cold to use, in fact during my 4 day visit I saw no one even attempt to swim in it. Forth, the bath tubs are very slick for shower use since their non-slip additive has worn off.  Fifth, the beds were nice, but they have not been rotated correctly since both beds were softer on the side next to the clock.  Sixth, speaking of clocks, the alarm system on my clock did not work correctly.  You could turn the alarm on/off, but the alarm time did not adjust as indicated and was stuck on 6 am.  However, my biggest issue was the way the ac was tied into a motion sensor mounted above the door.  After studying the setup for many nights, I decided the motion sensor turn off the ac unit when it thinks no one is in the room to save money.  Here's the problem, the sensor is mounted in the wrong location and only covers the hallway of the room and not the sleeping area.  Hence, the ac will shutdown every night since guests are sleeping and not walking around.  As a result, the temp will increase at night until you wake up and walk toward the door, at that point the ac appears to kick back on to normal mode.  Rise and repeat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r468803266-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>468803266</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>We stayed here the night we closed on the sale of our house, before our cross country drive to Alabama. The rooms were nicely decorated, and the free hot breakfast was really good! unexpected. They now have a pancake machine that my granddaughter loved, because she got to make them herself. No muss, no fuss. push a button and you have pancakes. We had a balcony room, and while it was nice to go out on the balcony. you only have one rocking chair, and since it was facing the west, the afternoon sun UV, destroyed the seat, so no sitting at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here the night we closed on the sale of our house, before our cross country drive to Alabama. The rooms were nicely decorated, and the free hot breakfast was really good! unexpected. They now have a pancake machine that my granddaughter loved, because she got to make them herself. No muss, no fuss. push a button and you have pancakes. We had a balcony room, and while it was nice to go out on the balcony. you only have one rocking chair, and since it was facing the west, the afternoon sun UV, destroyed the seat, so no sitting at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r465383308-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>465383308</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>This is a very good place to stay in the area. Everything is very modern. The room is clean and the breakfast is good. The front desk is very helpful but the directions to your room once you get off the elevator are a little confusing. 3 different people went the wrong way.MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2017</t>
+  </si>
+  <si>
+    <t>This is a very good place to stay in the area. Everything is very modern. The room is clean and the breakfast is good. The front desk is very helpful but the directions to your room once you get off the elevator are a little confusing. 3 different people went the wrong way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r462908343-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>462908343</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>Quick overnight stop</t>
+  </si>
+  <si>
+    <t>Very quiet, clean, and a comfortable bed. I'd definitely stay here again. Easy to get to off interstate, decent eating nearby. Pretty good coffee, not the common watered down brown stuff in other cheap hotels. Breakfast offerings good. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Very quiet, clean, and a comfortable bed. I'd definitely stay here again. Easy to get to off interstate, decent eating nearby. Pretty good coffee, not the common watered down brown stuff in other cheap hotels. Breakfast offerings good. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r444708974-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>444708974</t>
+  </si>
+  <si>
+    <t>12/16/2016</t>
+  </si>
+  <si>
+    <t>on road trip just arrived good start point</t>
+  </si>
+  <si>
+    <t>We booked this hotel because we needed a overnight stay after arriving at denver airport enroute north .The hotel is not to far from the airport by american road standards and has some good shopping close by to past the time.The rooms were generous clean and tidy. the staff were polite and helpfull and when wanting to get going next day the complimentary breakfast is always a bonusMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded December 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2016</t>
+  </si>
+  <si>
+    <t>We booked this hotel because we needed a overnight stay after arriving at denver airport enroute north .The hotel is not to far from the airport by american road standards and has some good shopping close by to past the time.The rooms were generous clean and tidy. the staff were polite and helpfull and when wanting to get going next day the complimentary breakfast is always a bonusMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r443052715-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>443052715</t>
+  </si>
+  <si>
+    <t>12/09/2016</t>
+  </si>
+  <si>
+    <t>Beautiful room!!</t>
+  </si>
+  <si>
+    <t>Nice, clean room. The beds were comfortable and bathroom large &amp; spacious. Check in staff was pleasant and very helpful.The only complaint was the room at night. We stayed in room 333 and my husband felt there was too much light coming from behind the blinds on the door from our balcony and under the door from the hall. He said he could "walk around the room without any difficulties."  MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded December 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2016</t>
+  </si>
+  <si>
+    <t>Nice, clean room. The beds were comfortable and bathroom large &amp; spacious. Check in staff was pleasant and very helpful.The only complaint was the room at night. We stayed in room 333 and my husband felt there was too much light coming from behind the blinds on the door from our balcony and under the door from the hall. He said he could "walk around the room without any difficulties."  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r428016547-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>428016547</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel</t>
+  </si>
+  <si>
+    <t>Traveling home from a long road trip through the national parks in Utah, needed to stop and get a bite to eat and a little sleep. Was very lucky and thankful to have gotten a room here, as the front desk clerks were so friendly and helpful in giving us the last room available for the night. This beautiful hotel has everything you need if visiting the Brighton, CO area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded October 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2016</t>
+  </si>
+  <si>
+    <t>Traveling home from a long road trip through the national parks in Utah, needed to stop and get a bite to eat and a little sleep. Was very lucky and thankful to have gotten a room here, as the front desk clerks were so friendly and helpful in giving us the last room available for the night. This beautiful hotel has everything you need if visiting the Brighton, CO area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r412080812-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>412080812</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>Nice comfortable Hotel, got everything you need!</t>
+  </si>
+  <si>
+    <t>Stayed in 4 different Holliday Express Hotel on our trip in Wyoming and Colorado.All of them were similar in price, interior and  amenities like breakfast included, a pool, fitness &amp;, business centre. Clean Hotel, comfortable beds and perfect shower. Friendly and helpful staff. Simple but very good breakfast. 20 minutes from Denver International Airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded August 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2016</t>
+  </si>
+  <si>
+    <t>Stayed in 4 different Holliday Express Hotel on our trip in Wyoming and Colorado.All of them were similar in price, interior and  amenities like breakfast included, a pool, fitness &amp;, business centre. Clean Hotel, comfortable beds and perfect shower. Friendly and helpful staff. Simple but very good breakfast. 20 minutes from Denver International Airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r403591184-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>403591184</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>I stayed a night to visit a client near by. Hotel was fantastic and people were friendly. Room was nice and clean. Breakfast was very good as well. I forgot my shaving kit and they were nice to give me a razor and shaving cream saving me a trip to drug store.MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded August 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2016</t>
+  </si>
+  <si>
+    <t>I stayed a night to visit a client near by. Hotel was fantastic and people were friendly. Room was nice and clean. Breakfast was very good as well. I forgot my shaving kit and they were nice to give me a razor and shaving cream saving me a trip to drug store.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r396952004-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>396952004</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed just one night passing through. It was about 20 minute drive from the Denver airport with no traffic. The front desk accommodated our late check-in nicely. The room was wonderful! The only negative I can mention is there was no coffee or mugs left in the room, so we weren't able to make coffee in our room. We didn't use the pool, but the fitness center was nice. Breakfast there was decent with plenty of sitting area. I would recommend this hotel if you're in the area! MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I stayed just one night passing through. It was about 20 minute drive from the Denver airport with no traffic. The front desk accommodated our late check-in nicely. The room was wonderful! The only negative I can mention is there was no coffee or mugs left in the room, so we weren't able to make coffee in our room. We didn't use the pool, but the fitness center was nice. Breakfast there was decent with plenty of sitting area. I would recommend this hotel if you're in the area! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r395112734-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>395112734</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful Stay </t>
+  </si>
+  <si>
+    <t>Front desk staff was wonderful and accommodating. Loved the free bottles of water given at the front desk. Lobby and rooms are very modern and nice. Our family consisted of 2 adults and 4 kids. We stayed in a 2 Queen suite and pull out couch and were all comfortable. The complimentary breakfast was great. Pancakes, biscuits and gravy, turkey and regular sausage and eggs were available. Along with cereals, pastries and all the normal stuff served in a complimentary breakfast. Jc penny's was within walking distance. Not sure if a mall was attached to it. All in all we enjoyed our stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Front desk staff was wonderful and accommodating. Loved the free bottles of water given at the front desk. Lobby and rooms are very modern and nice. Our family consisted of 2 adults and 4 kids. We stayed in a 2 Queen suite and pull out couch and were all comfortable. The complimentary breakfast was great. Pancakes, biscuits and gravy, turkey and regular sausage and eggs were available. Along with cereals, pastries and all the normal stuff served in a complimentary breakfast. Jc penny's was within walking distance. Not sure if a mall was attached to it. All in all we enjoyed our stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r393142386-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>393142386</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Pleasant and Convenient</t>
+  </si>
+  <si>
+    <t>We picked this hotel because of its proximity to Denver Intern'l Airport -- 18 miles away. The hotel was just a place to spend the night, but every aspect of our stay was pleasant, from the warm greeting (and acknowledgement of our being an IHG member -- everyone should join), the clean and modern room, the free WiFi, and the very ample free breakfast the next morning.  About the breakfast -- there were the typical items like eggs and make your own waffles, plus real oatmeal (not instant), fresh fruit and juices. My wife and I are vegans and are always happily surprised that there are things that we can eat at these free breakfasts.  This is not the cheapest place we could have found but with the free breakfast and WiFi, I think it is a good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2016</t>
+  </si>
+  <si>
+    <t>We picked this hotel because of its proximity to Denver Intern'l Airport -- 18 miles away. The hotel was just a place to spend the night, but every aspect of our stay was pleasant, from the warm greeting (and acknowledgement of our being an IHG member -- everyone should join), the clean and modern room, the free WiFi, and the very ample free breakfast the next morning.  About the breakfast -- there were the typical items like eggs and make your own waffles, plus real oatmeal (not instant), fresh fruit and juices. My wife and I are vegans and are always happily surprised that there are things that we can eat at these free breakfasts.  This is not the cheapest place we could have found but with the free breakfast and WiFi, I think it is a good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r391879890-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>391879890</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Brilliant!</t>
+  </si>
+  <si>
+    <t>Stayed one night after 7 nights at other local hotels. This is one of the best values in the IHG portfolio. I am the highest status with IHG.Exceptional service and management, plus clean and spacious rooms. Even has a patio with grill if you are so inclined.MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded July 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2016</t>
+  </si>
+  <si>
+    <t>Stayed one night after 7 nights at other local hotels. This is one of the best values in the IHG portfolio. I am the highest status with IHG.Exceptional service and management, plus clean and spacious rooms. Even has a patio with grill if you are so inclined.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r381154516-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>381154516</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>Friendly Staff</t>
+  </si>
+  <si>
+    <t>I was sent to Brighton for job training. Arrived May 30th and left June 8th. From day one, the staff was friendly, attentive, and helpful. My room was clean and had no issues for the duration of my trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded June 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2016</t>
+  </si>
+  <si>
+    <t>I was sent to Brighton for job training. Arrived May 30th and left June 8th. From day one, the staff was friendly, attentive, and helpful. My room was clean and had no issues for the duration of my trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r370544878-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>370544878</t>
+  </si>
+  <si>
+    <t>05/05/2016</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel a number of times and every time and all of the staff has been outstanding  hotel is clean and is in great shape. It is in a great location with restaurants within a couple of minutes drive. It is a pleasure to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel a number of times and every time and all of the staff has been outstanding  hotel is clean and is in great shape. It is in a great location with restaurants within a couple of minutes drive. It is a pleasure to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r363635309-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>363635309</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>Immaculate and Friendly</t>
+  </si>
+  <si>
+    <t>This is the best of the Holiday Inn Express hotels I have enjoyed over the years. When traveling distances by car, it really helps to have a streamlined, comfortable and spacious place to crash at the end of each travel day. The new shopping mall nearby was an added bonus and the friendly, very helpful staff made a difference to me.  I was exhausted when I arrived and felt totally refreshed when I left. Will definitely return!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2016</t>
+  </si>
+  <si>
+    <t>This is the best of the Holiday Inn Express hotels I have enjoyed over the years. When traveling distances by car, it really helps to have a streamlined, comfortable and spacious place to crash at the end of each travel day. The new shopping mall nearby was an added bonus and the friendly, very helpful staff made a difference to me.  I was exhausted when I arrived and felt totally refreshed when I left. Will definitely return!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r316705748-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>316705748</t>
+  </si>
+  <si>
+    <t>10/06/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabulous facility, excellent service </t>
+  </si>
+  <si>
+    <t>I stayed here for two nights on business.  The room was spacious and clean.  There was a Super Target near by for snacks and a microwave and fridge in my room.  Breakfast was very well done - the usual cereal, eggs, bacon and such.  But they had the added bonus of Udi's gluten free bagels!  First time I've ever seen that and as a gluten free guy I was very pleased.  Staff were friendly, bed and pillows comfortable and the space seemed brand new.  I was very impressed and happy I chose to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded October 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights on business.  The room was spacious and clean.  There was a Super Target near by for snacks and a microwave and fridge in my room.  Breakfast was very well done - the usual cereal, eggs, bacon and such.  But they had the added bonus of Udi's gluten free bagels!  First time I've ever seen that and as a gluten free guy I was very pleased.  Staff were friendly, bed and pillows comfortable and the space seemed brand new.  I was very impressed and happy I chose to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r311435244-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>311435244</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Gorgeous Property!</t>
+  </si>
+  <si>
+    <t>I decided to stay here to have a quick and easy drive to the airport in the morning. This property is brand new and fabulous. My jaw literally dropped when I went to check out the exercise room! Easy drive to chain restaurants and Target. I wish all properties were like this one!</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r307862100-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>307862100</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>Ideal start to our holiday</t>
+  </si>
+  <si>
+    <t>Finally landed at Denver Int'l after a 3 hour delay and 9 1/2 hour flight from England. The delay meant that it was dark (9.30pm local time) when we landed and we were a little apprehensive about getting to the hotel as neither of us have driven in the US before. We collected our car and set off. The drive to this hotel could not have been easier, we didn't have a sat-nav, just some printed directions off google maps! It was about a 20 minute journey, if not shorter.The welcome from the receptionist was polite and check-in easy. The room was a good size and very clean. The bed was extremely comfortable. There was a microwave, fridge and a coffee maker in the room.Complimentary breakfast the next morning included a selection of hot and cold items....bagels, bacon, scrambled eggs, biscuits &amp; gravy, yogurt, pastries etc and the breakfast room was large, clean and comfortable. This hotel was perfectly situated for our 6 hour drive north to Deadwood, South Dakota. We left feeling refreshed from our long flight and would not hesitate to stay here again if we are ever in that area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded September 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2015</t>
+  </si>
+  <si>
+    <t>Finally landed at Denver Int'l after a 3 hour delay and 9 1/2 hour flight from England. The delay meant that it was dark (9.30pm local time) when we landed and we were a little apprehensive about getting to the hotel as neither of us have driven in the US before. We collected our car and set off. The drive to this hotel could not have been easier, we didn't have a sat-nav, just some printed directions off google maps! It was about a 20 minute journey, if not shorter.The welcome from the receptionist was polite and check-in easy. The room was a good size and very clean. The bed was extremely comfortable. There was a microwave, fridge and a coffee maker in the room.Complimentary breakfast the next morning included a selection of hot and cold items....bagels, bacon, scrambled eggs, biscuits &amp; gravy, yogurt, pastries etc and the breakfast room was large, clean and comfortable. This hotel was perfectly situated for our 6 hour drive north to Deadwood, South Dakota. We left feeling refreshed from our long flight and would not hesitate to stay here again if we are ever in that area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r300082166-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>300082166</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Great stop</t>
+  </si>
+  <si>
+    <t>This hotel was in a good location. The room was very clean and roomy. The bed and pillows were very comfortable. The breakfast was good with a lot of food to choose from. It was a little pricey but probably the going rate in this area. I would definitely would recommend  this place to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded August 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was in a good location. The room was very clean and roomy. The bed and pillows were very comfortable. The breakfast was good with a lot of food to choose from. It was a little pricey but probably the going rate in this area. I would definitely would recommend  this place to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r298563275-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>298563275</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>There and back again.</t>
+  </si>
+  <si>
+    <t>This was the first stopover and the last stopover on a 2 week long trip to the west. It was a nice convenient place to stay on I-76. The hotel was quiet, even with small children running through the halls. The bed was comfortable and they always have great pillows. There was shopping nearby, so you could get a variety of different meals for supper. Or if needed, a place to get forgot items or batteries for a reasonable price. The staff was great when I thought I had an air conditioning issue. I got a good rest both times I stayed. Breakfast was large and had a good selection for all tastes. I will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>This was the first stopover and the last stopover on a 2 week long trip to the west. It was a nice convenient place to stay on I-76. The hotel was quiet, even with small children running through the halls. The bed was comfortable and they always have great pillows. There was shopping nearby, so you could get a variety of different meals for supper. Or if needed, a place to get forgot items or batteries for a reasonable price. The staff was great when I thought I had an air conditioning issue. I got a good rest both times I stayed. Breakfast was large and had a good selection for all tastes. I will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r295875739-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>295875739</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>The hotel is in the middle of a developing area but this is a great hotel. We had a big room with a sofa and a chair with a feet rest. A perfect area in the room if you want to surf the internet while your significant other is sleeping. I thought the complimentary breakfast was delicious. Try their egg cheese omelet. Delicious!MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded August 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is in the middle of a developing area but this is a great hotel. We had a big room with a sofa and a chair with a feet rest. A perfect area in the room if you want to surf the internet while your significant other is sleeping. I thought the complimentary breakfast was delicious. Try their egg cheese omelet. Delicious!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r291922266-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>291922266</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>This place Brighton'ed our travel.</t>
+  </si>
+  <si>
+    <t>We got our usual king suite style of room that we always get at a Holiday Inn Express.  The room was very nice and clean as we have come to expect. The bed however was something unreal.  It was THE most comfortable bed that we have slept in.  The breakfast tasted better than usual too.  The staff was friendly and gave us direction to where we wanted to go.  If we come this way again, we will stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded July 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2015</t>
+  </si>
+  <si>
+    <t>We got our usual king suite style of room that we always get at a Holiday Inn Express.  The room was very nice and clean as we have come to expect. The bed however was something unreal.  It was THE most comfortable bed that we have slept in.  The breakfast tasted better than usual too.  The staff was friendly and gave us direction to where we wanted to go.  If we come this way again, we will stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r283707746-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>283707746</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Slightly better than average Holiday Inn</t>
+  </si>
+  <si>
+    <t>My husband and I spent the night here after a late night flight. We found our room comfortable and clean, the staff friendly and breakfast was better than most Holiday Inns we've stayed at. This hotel is about 15/20 minutes north of Denver International, but since we were heading north the following day, the location was perfect. There are also a few stores and restaurants nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2015</t>
+  </si>
+  <si>
+    <t>My husband and I spent the night here after a late night flight. We found our room comfortable and clean, the staff friendly and breakfast was better than most Holiday Inns we've stayed at. This hotel is about 15/20 minutes north of Denver International, but since we were heading north the following day, the location was perfect. There are also a few stores and restaurants nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r279539505-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>279539505</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Has everything we needed</t>
+  </si>
+  <si>
+    <t>Staff here was very helpful.  We had several family members coming in from 4 different states.  They were able to accommodate the needs of the young to the old. Ground floor for the older, pool for the kids and very nice exercise room.  The family was able to use the grill and the breakfast area as a gathering place and dinner area.  The lobby even had games for the guest to use.  The rooms were very comfortable.  Several of us had the suites which allowed room for people to gather.  The second floor middle room windows did not fully open while the rooms near the end did making them more desirable.  Also the road noise in the rooms at the highway end was noticeable. We would recommend this hotel highly.MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Staff here was very helpful.  We had several family members coming in from 4 different states.  They were able to accommodate the needs of the young to the old. Ground floor for the older, pool for the kids and very nice exercise room.  The family was able to use the grill and the breakfast area as a gathering place and dinner area.  The lobby even had games for the guest to use.  The rooms were very comfortable.  Several of us had the suites which allowed room for people to gather.  The second floor middle room windows did not fully open while the rooms near the end did making them more desirable.  Also the road noise in the rooms at the highway end was noticeable. We would recommend this hotel highly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r270764653-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>270764653</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>Great hotel.  Near Airport, hospital, Barr Lake State Park</t>
+  </si>
+  <si>
+    <t>Everything was great.  I was able to check in early on our first night.  There was a leak from the in room refrigerator and they sent someone up within minutes. The front staff is friendly and accommodating, the breakfast is very satisfying, the beds and pillows are great…really,  everything was perfect.  We used the pool and hot tub and that was good too.  We grabbed a pizza one night and ate in the breakfast area of the hotel (lots of room) and it seems that a lots of people use this area to hang out, get some work done, etc.. There are some fast food and chain restaurants nearby. Could walk, but a car is handy.  The hospital is next door (they have a great cafeteria, in case), but we did not hear any sirens, etc.  Also, highway is directly to the east, absolutely no traffic noise could be heard in the room.  We loved it! I will definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded May 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2015</t>
+  </si>
+  <si>
+    <t>Everything was great.  I was able to check in early on our first night.  There was a leak from the in room refrigerator and they sent someone up within minutes. The front staff is friendly and accommodating, the breakfast is very satisfying, the beds and pillows are great…really,  everything was perfect.  We used the pool and hot tub and that was good too.  We grabbed a pizza one night and ate in the breakfast area of the hotel (lots of room) and it seems that a lots of people use this area to hang out, get some work done, etc.. There are some fast food and chain restaurants nearby. Could walk, but a car is handy.  The hospital is next door (they have a great cafeteria, in case), but we did not hear any sirens, etc.  Also, highway is directly to the east, absolutely no traffic noise could be heard in the room.  We loved it! I will definitely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r266315285-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>266315285</t>
+  </si>
+  <si>
+    <t>04/17/2015</t>
+  </si>
+  <si>
+    <t>Good Overnight place to stay</t>
+  </si>
+  <si>
+    <t>What you expect from Holiday Inn in terms of comfort, convenience, and security. The breakfast was a little disappointing in that the biscuits were hard and cold (not edible).   I usually butter and jam them.  I suppose they expected people to put gravy on them and they might not notice. As usual there was enough of a selection to find something else.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded April 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2015</t>
+  </si>
+  <si>
+    <t>What you expect from Holiday Inn in terms of comfort, convenience, and security. The breakfast was a little disappointing in that the biscuits were hard and cold (not edible).   I usually butter and jam them.  I suppose they expected people to put gravy on them and they might not notice. As usual there was enough of a selection to find something else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r263478935-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>263478935</t>
+  </si>
+  <si>
+    <t>04/03/2015</t>
+  </si>
+  <si>
+    <t>nice rooms friendly staff</t>
+  </si>
+  <si>
+    <t>Friendly staff and very clean updated or new hotel. I think its overpriced however. There aren't many good choices in the area in for under 100 bucks a night, which is disappointing. The breakfast is decent and served til 930, don't be late for breakfast as the staff swoops in and helps themselves, which I think is a good idea, since very little would go to waste. Housekeeping is on point and all staff very helpful. Great beds and linens.MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded April 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2015</t>
+  </si>
+  <si>
+    <t>Friendly staff and very clean updated or new hotel. I think its overpriced however. There aren't many good choices in the area in for under 100 bucks a night, which is disappointing. The breakfast is decent and served til 930, don't be late for breakfast as the staff swoops in and helps themselves, which I think is a good idea, since very little would go to waste. Housekeeping is on point and all staff very helpful. Great beds and linens.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r255264669-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>255264669</t>
+  </si>
+  <si>
+    <t>02/19/2015</t>
+  </si>
+  <si>
+    <t>Quick overnight stay!</t>
+  </si>
+  <si>
+    <t>As usual...HIE never disappoints. Check-in at 11pm went quick and smooth. Breakfast had a nice variety of cold and hot items. Our rooms were clean a tad on the hot side, but nice and clean. The Bath and Body Works toiletry items were a nice surprise. We would stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded February 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2015</t>
+  </si>
+  <si>
+    <t>As usual...HIE never disappoints. Check-in at 11pm went quick and smooth. Breakfast had a nice variety of cold and hot items. Our rooms were clean a tad on the hot side, but nice and clean. The Bath and Body Works toiletry items were a nice surprise. We would stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r252731011-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>252731011</t>
+  </si>
+  <si>
+    <t>02/05/2015</t>
+  </si>
+  <si>
+    <t>Nice and comfortable</t>
+  </si>
+  <si>
+    <t>As usual, you can count and trust on Holiday Inn Express, good and friendly staff, nice clean and big roomsAll hotel functionalities very well working and you can have a comfortable stay.Truely recommendable for allRelatively easy access from Denver International Airport (20 min. drive) and big parking area.Nearby the restaurant chains you need for lunch or dinnerMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded February 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2015</t>
+  </si>
+  <si>
+    <t>As usual, you can count and trust on Holiday Inn Express, good and friendly staff, nice clean and big roomsAll hotel functionalities very well working and you can have a comfortable stay.Truely recommendable for allRelatively easy access from Denver International Airport (20 min. drive) and big parking area.Nearby the restaurant chains you need for lunch or dinnerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r252514758-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>252514758</t>
+  </si>
+  <si>
+    <t>02/03/2015</t>
+  </si>
+  <si>
+    <t>Average hotel with friendly service</t>
+  </si>
+  <si>
+    <t>I was staying at this hotel for a business training course. The hotel was what I would expect from a Holiday Inn Express. During my visit, parking availability was adequate but it appeared small for the size of the hotel and having another hotel essentially sharing the same space. I was greeted quickly and had my room within minutes of my arrival. The hotel lobby was clean and well maintained. My luggage had been lost on my plane ride to Denver and the front staff attempted to do the best they could to help given the situation (tooth brush, deodorant, razer, etc.). They had phoned and informed me when my bags were dropped off. The room was a standard size with a king bed - again, what I had expected from staying in different Holiday Inn Express hotels before. The GFI plug in the bathroom was permanently tripped so couldn't use the outlet for anything. The shower control didn't seem to work as designed kept freezing and burning myself but eventually figured it out and found the sweet spot. The location was close to  Prairie Center, restaurants, fast food, shopping. Also, the drive to downtown Denver only took about 20 mins, at most. To and from the airport was also fairly easy to navigate. Overall all, a quality stay but nothing out of the ordinary except bunnies that seem to only come out a night between the hotel and JC...I was staying at this hotel for a business training course. The hotel was what I would expect from a Holiday Inn Express. During my visit, parking availability was adequate but it appeared small for the size of the hotel and having another hotel essentially sharing the same space. I was greeted quickly and had my room within minutes of my arrival. The hotel lobby was clean and well maintained. My luggage had been lost on my plane ride to Denver and the front staff attempted to do the best they could to help given the situation (tooth brush, deodorant, razer, etc.). They had phoned and informed me when my bags were dropped off. The room was a standard size with a king bed - again, what I had expected from staying in different Holiday Inn Express hotels before. The GFI plug in the bathroom was permanently tripped so couldn't use the outlet for anything. The shower control didn't seem to work as designed kept freezing and burning myself but eventually figured it out and found the sweet spot. The location was close to  Prairie Center, restaurants, fast food, shopping. Also, the drive to downtown Denver only took about 20 mins, at most. To and from the airport was also fairly easy to navigate. Overall all, a quality stay but nothing out of the ordinary except bunnies that seem to only come out a night between the hotel and JC Penny.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded February 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2015</t>
+  </si>
+  <si>
+    <t>I was staying at this hotel for a business training course. The hotel was what I would expect from a Holiday Inn Express. During my visit, parking availability was adequate but it appeared small for the size of the hotel and having another hotel essentially sharing the same space. I was greeted quickly and had my room within minutes of my arrival. The hotel lobby was clean and well maintained. My luggage had been lost on my plane ride to Denver and the front staff attempted to do the best they could to help given the situation (tooth brush, deodorant, razer, etc.). They had phoned and informed me when my bags were dropped off. The room was a standard size with a king bed - again, what I had expected from staying in different Holiday Inn Express hotels before. The GFI plug in the bathroom was permanently tripped so couldn't use the outlet for anything. The shower control didn't seem to work as designed kept freezing and burning myself but eventually figured it out and found the sweet spot. The location was close to  Prairie Center, restaurants, fast food, shopping. Also, the drive to downtown Denver only took about 20 mins, at most. To and from the airport was also fairly easy to navigate. Overall all, a quality stay but nothing out of the ordinary except bunnies that seem to only come out a night between the hotel and JC...I was staying at this hotel for a business training course. The hotel was what I would expect from a Holiday Inn Express. During my visit, parking availability was adequate but it appeared small for the size of the hotel and having another hotel essentially sharing the same space. I was greeted quickly and had my room within minutes of my arrival. The hotel lobby was clean and well maintained. My luggage had been lost on my plane ride to Denver and the front staff attempted to do the best they could to help given the situation (tooth brush, deodorant, razer, etc.). They had phoned and informed me when my bags were dropped off. The room was a standard size with a king bed - again, what I had expected from staying in different Holiday Inn Express hotels before. The GFI plug in the bathroom was permanently tripped so couldn't use the outlet for anything. The shower control didn't seem to work as designed kept freezing and burning myself but eventually figured it out and found the sweet spot. The location was close to  Prairie Center, restaurants, fast food, shopping. Also, the drive to downtown Denver only took about 20 mins, at most. To and from the airport was also fairly easy to navigate. Overall all, a quality stay but nothing out of the ordinary except bunnies that seem to only come out a night between the hotel and JC Penny.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r244038382-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>244038382</t>
+  </si>
+  <si>
+    <t>12/11/2014</t>
+  </si>
+  <si>
+    <t>Super friendly and helpful!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 7 days, 6 nights. My first impression of the lobby was modern, cozy and inviting, and our room was as nice as a very upscale Atlantic City casino hotel room. The front desk person that was on duty most of the time during our stay was Kitty and she was absolutely awesome! She gave us free bottled water on the way in, snacks for the airplane on the way out, advice on where to go, what to see, how to avoid elevation sickness (haha) directions that took us through the most amazing scenery, and was just so friendly and always had time for a chat whenever we came through the lobby. We've stayed at other Holiday Inn Expresses in other states and they are consistently nice and the free breakfast every morning is fantastic! Also enjoyed that there was always free coffee, tea and hot cocoa available all day and all night. Will definitely always choose a Holiday Inn Express wherever we go!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded December 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 7 days, 6 nights. My first impression of the lobby was modern, cozy and inviting, and our room was as nice as a very upscale Atlantic City casino hotel room. The front desk person that was on duty most of the time during our stay was Kitty and she was absolutely awesome! She gave us free bottled water on the way in, snacks for the airplane on the way out, advice on where to go, what to see, how to avoid elevation sickness (haha) directions that took us through the most amazing scenery, and was just so friendly and always had time for a chat whenever we came through the lobby. We've stayed at other Holiday Inn Expresses in other states and they are consistently nice and the free breakfast every morning is fantastic! Also enjoyed that there was always free coffee, tea and hot cocoa available all day and all night. Will definitely always choose a Holiday Inn Express wherever we go!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r238850947-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>238850947</t>
+  </si>
+  <si>
+    <t>11/08/2014</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>Stayed here a few nights on business and was satisfied with my experience. Clean room, not too noisy, restaurants close by, what else do you need? I stay at HIE very often so I'm quick to notice when somethings not right. I would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded November 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here a few nights on business and was satisfied with my experience. Clean room, not too noisy, restaurants close by, what else do you need? I stay at HIE very often so I'm quick to notice when somethings not right. I would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r237281692-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>237281692</t>
+  </si>
+  <si>
+    <t>10/31/2014</t>
+  </si>
+  <si>
+    <t>Best place to stay</t>
+  </si>
+  <si>
+    <t>Employees are friendly with the smile, the front desk help us and take care us all the way. Food is the best every morning, rooms are big and clean have everything you need. It feel like home.......excellence MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded November 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2014</t>
+  </si>
+  <si>
+    <t>Employees are friendly with the smile, the front desk help us and take care us all the way. Food is the best every morning, rooms are big and clean have everything you need. It feel like home.......excellence More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r234360227-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>234360227</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>This was our return trip, thanks to the owner Todd. This time around our stay was very nice, room was in perfect order, great shower in the really nice bathroom. Bed and pillows super comfortable. What's nice about the pillows is that they have two choices for you to pick from: one is "soft", the other is "firm", its even monogrammed on the pillow case!!! How sweet is that! Breakfast was delicious and everything was nice and hot. Staff was very polite and helpful, even gave us a great place to go and enjoy a steak dinner. That place was the Lone Star, delicious steaks.  Truly a great hotel to stay at, we recommend this one to all....MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded October 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2014</t>
+  </si>
+  <si>
+    <t>This was our return trip, thanks to the owner Todd. This time around our stay was very nice, room was in perfect order, great shower in the really nice bathroom. Bed and pillows super comfortable. What's nice about the pillows is that they have two choices for you to pick from: one is "soft", the other is "firm", its even monogrammed on the pillow case!!! How sweet is that! Breakfast was delicious and everything was nice and hot. Staff was very polite and helpful, even gave us a great place to go and enjoy a steak dinner. That place was the Lone Star, delicious steaks.  Truly a great hotel to stay at, we recommend this one to all....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r233643598-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>233643598</t>
+  </si>
+  <si>
+    <t>10/10/2014</t>
+  </si>
+  <si>
+    <t>Well done</t>
+  </si>
+  <si>
+    <t>Nice property. I stay at a lot of them and the facility, and the staff, at this location are exceptional. Very well appointed and tastefully done. The staff hit all the correct touch points in providing all information required at check in.MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded October 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2014</t>
+  </si>
+  <si>
+    <t>Nice property. I stay at a lot of them and the facility, and the staff, at this location are exceptional. Very well appointed and tastefully done. The staff hit all the correct touch points in providing all information required at check in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r233081673-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>233081673</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We just spent four nights at the hotel and it was a great experience. All of the staff were so helpful and took the time to help us with any questions we had. The hotel room was excellent and very comfortable. We had nice restaurants close by for our enjoyment. Loved this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded October 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2014</t>
+  </si>
+  <si>
+    <t>We just spent four nights at the hotel and it was a great experience. All of the staff were so helpful and took the time to help us with any questions we had. The hotel room was excellent and very comfortable. We had nice restaurants close by for our enjoyment. Loved this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r230357082-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>230357082</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>Superb Hotel</t>
+  </si>
+  <si>
+    <t>I travel extensively in my business, and have traveled for over 30 years. The Brighton Holiday Inn Express always stands out from the standard for not only great customer service and friendly, knowledgeable staff, but also for superb upkeep and cleanliness of the Hotel. One of my "pet peeves" in many hotels is the condition of the Exercise Room Equipment. The Brighton Holiday Inn Express equipment is well maintained and works like new. They also have more selection of Equipment than many Hotels including free dumbbell weights and Ab machine as well as treadmills, Elliptical and Bicycle. The breakfast area is spacious and the food is great. Highly recommend this Hotel. It is one of the nicest Hotels I stay at in my travels around the US and Canada.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded September 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2014</t>
+  </si>
+  <si>
+    <t>I travel extensively in my business, and have traveled for over 30 years. The Brighton Holiday Inn Express always stands out from the standard for not only great customer service and friendly, knowledgeable staff, but also for superb upkeep and cleanliness of the Hotel. One of my "pet peeves" in many hotels is the condition of the Exercise Room Equipment. The Brighton Holiday Inn Express equipment is well maintained and works like new. They also have more selection of Equipment than many Hotels including free dumbbell weights and Ab machine as well as treadmills, Elliptical and Bicycle. The breakfast area is spacious and the food is great. Highly recommend this Hotel. It is one of the nicest Hotels I stay at in my travels around the US and Canada.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r230180159-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>230180159</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>Volleyball Tourney</t>
+  </si>
+  <si>
+    <t>This hotel is fabulous!  Their rooms, breakfast area and breakfast, staff, and entire accommodations are impeccable!  We would highly recommend this location!  One of the nicest hotels we have ever stayed at!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This hotel is fabulous!  Their rooms, breakfast area and breakfast, staff, and entire accommodations are impeccable!  We would highly recommend this location!  One of the nicest hotels we have ever stayed at!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r226327892-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>226327892</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Wonderful Experience</t>
+  </si>
+  <si>
+    <t>We stayed here over Labor Day weekend because we were visiting our grandchildren in Brighton.  We checked in and were put in a room by the elevator so we asked if there were any complaints about the noise.  They told us that if we wanted they could move us to another room.  We did and then they called to make sure that it was satisfactory.  The rooms were very clean and if felt like a brand new hotel.  We loved the breakfast.  There was a great variety and everything was fresh. The lady who was in charge did a great job of keeping track of everything on the breakfast line.  She watched carefully and if anything was low, it was stocked right away.  We ate both early and late and it was always fresh and well stocked.  We stayed 3 nights and slept well in the comfortable beds. There was always bottled water available at the desk.  We would return (and will) any time.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded September 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here over Labor Day weekend because we were visiting our grandchildren in Brighton.  We checked in and were put in a room by the elevator so we asked if there were any complaints about the noise.  They told us that if we wanted they could move us to another room.  We did and then they called to make sure that it was satisfactory.  The rooms were very clean and if felt like a brand new hotel.  We loved the breakfast.  There was a great variety and everything was fresh. The lady who was in charge did a great job of keeping track of everything on the breakfast line.  She watched carefully and if anything was low, it was stocked right away.  We ate both early and late and it was always fresh and well stocked.  We stayed 3 nights and slept well in the comfortable beds. There was always bottled water available at the desk.  We would return (and will) any time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r219799931-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>219799931</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Good overnight stop</t>
+  </si>
+  <si>
+    <t>We recently stayed at this property for an overnight stay and were very pleased with the hotel. We arrived very late in the evening and the front office staff were very friendly and prompt in getting us a room. The beds slept good and the room was very clean.  Breakfast was hot and well stocked.  The hotel seemed to be in a good location, close to shopping and restaurants. Would stay here again if in the Denver area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded August 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2014</t>
+  </si>
+  <si>
+    <t>We recently stayed at this property for an overnight stay and were very pleased with the hotel. We arrived very late in the evening and the front office staff were very friendly and prompt in getting us a room. The beds slept good and the room was very clean.  Breakfast was hot and well stocked.  The hotel seemed to be in a good location, close to shopping and restaurants. Would stay here again if in the Denver area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r215170503-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>215170503</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>Not bad but will look elsewhere when in the area again.</t>
+  </si>
+  <si>
+    <t>Staff was friendly enough but didn't go out of there way to make it a great stay. We had an executive king suite and it was a large room but walls are paper thin. We could hear walking and TV next to us the entire night. We noticed they had rooms with balconies on the back half of the hotel right after check in, so we asked about upgrading( we would pay the extra) and the front desk clerk said sorry they are booked without even checking the computer. Maybe they just know ever room in the hotel but I didn't see any lights on the entire evening and early morning in those rooms. If you want guests to stay here, treat them right and make the effort to show us you want our business. This hotel is located right off of I76 and next to the Prairie shopping plaza.MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded July 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2014</t>
+  </si>
+  <si>
+    <t>Staff was friendly enough but didn't go out of there way to make it a great stay. We had an executive king suite and it was a large room but walls are paper thin. We could hear walking and TV next to us the entire night. We noticed they had rooms with balconies on the back half of the hotel right after check in, so we asked about upgrading( we would pay the extra) and the front desk clerk said sorry they are booked without even checking the computer. Maybe they just know ever room in the hotel but I didn't see any lights on the entire evening and early morning in those rooms. If you want guests to stay here, treat them right and make the effort to show us you want our business. This hotel is located right off of I76 and next to the Prairie shopping plaza.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r213324239-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>213324239</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
+  </si>
+  <si>
+    <t>Comfortable and Clean</t>
+  </si>
+  <si>
+    <t>Stayed one night in June, easy check in, clean room and pool area.  Friendly staff.  I liked the lobby area, lots of seating. Breakfast was okay, typical of this type of lodging.  Would stay again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded July 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2014</t>
+  </si>
+  <si>
+    <t>Stayed one night in June, easy check in, clean room and pool area.  Friendly staff.  I liked the lobby area, lots of seating. Breakfast was okay, typical of this type of lodging.  Would stay again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r206760410-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>206760410</t>
+  </si>
+  <si>
+    <t>05/23/2014</t>
+  </si>
+  <si>
+    <t>3 Day business trip</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel, fairly new it appears.  Customer service from front desk to the cleaning service was excellent.  Room was comfortable, quiet and clean.  Breakfast was standard HIE menu, but was of a good quality and fresh.  Pool and hot tub were very nice and clean as well.I will definitely stay here again when in town next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2014</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel, fairly new it appears.  Customer service from front desk to the cleaning service was excellent.  Room was comfortable, quiet and clean.  Breakfast was standard HIE menu, but was of a good quality and fresh.  Pool and hot tub were very nice and clean as well.I will definitely stay here again when in town next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r200015249-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>200015249</t>
+  </si>
+  <si>
+    <t>04/05/2014</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel!</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for several nights and would highly recommend it to everyone!  The people at the front desk were fantastic!  The hotel is very clean!  USA today at your door every morning, nice to read after your free hot breakfast!  Definitely would stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded April 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2014</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for several nights and would highly recommend it to everyone!  The people at the front desk were fantastic!  The hotel is very clean!  USA today at your door every morning, nice to read after your free hot breakfast!  Definitely would stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r197405392-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>197405392</t>
+  </si>
+  <si>
+    <t>03/14/2014</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Good hotel. Wife and I with 2 kids, 10 &amp; 6 stayed for 2 nights. Great breakfast. Better than average gym. Pool and spa average.  Rooms were very nice and clean. Best of all It was quiet. Staff was very friendly.  Would we stay again... most definitely. Gave it a 4 because of the price but still better than the rest.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded March 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2014</t>
+  </si>
+  <si>
+    <t>Good hotel. Wife and I with 2 kids, 10 &amp; 6 stayed for 2 nights. Great breakfast. Better than average gym. Pool and spa average.  Rooms were very nice and clean. Best of all It was quiet. Staff was very friendly.  Would we stay again... most definitely. Gave it a 4 because of the price but still better than the rest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r186797262-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>186797262</t>
+  </si>
+  <si>
+    <t>12/04/2013</t>
+  </si>
+  <si>
+    <t>Favorite Place to Stay in Brighton</t>
+  </si>
+  <si>
+    <t>This is my third or fourth visit to this hotel. It has become one of my favorites. It is quiet, even given it's proximity to I-76. There is decent food spots a short drive away. There is really not much around a 1/4 mile radius of this hotel except a Candlewood Suites. Don't let the area deter you, the rooms are clean and well appointed. The granite in the bathroom and shower is a nice added touch. The staff is very friendly and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded December 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2013</t>
+  </si>
+  <si>
+    <t>This is my third or fourth visit to this hotel. It has become one of my favorites. It is quiet, even given it's proximity to I-76. There is decent food spots a short drive away. There is really not much around a 1/4 mile radius of this hotel except a Candlewood Suites. Don't let the area deter you, the rooms are clean and well appointed. The granite in the bathroom and shower is a nice added touch. The staff is very friendly and accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r180393599-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>180393599</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>Quiet, Comfortable Rooms and Great Staff!</t>
+  </si>
+  <si>
+    <t>I stayed one night, but I was very impressed by the friendly staff and quiet atmosphere. The room was nicely appointed and clean. The whole hotel seems to be very new - recently built I guess. The hot tub was the perfect temperature and the breakfast was tasty.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded October 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2013</t>
+  </si>
+  <si>
+    <t>I stayed one night, but I was very impressed by the friendly staff and quiet atmosphere. The room was nicely appointed and clean. The whole hotel seems to be very new - recently built I guess. The hot tub was the perfect temperature and the breakfast was tasty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r177564841-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>177564841</t>
+  </si>
+  <si>
+    <t>09/17/2013</t>
+  </si>
+  <si>
+    <t>Another Great Holiday Inn</t>
+  </si>
+  <si>
+    <t>This was my introduction to Holiday Inns, and it sold me on using them for my business and personal purposes.The hotel is extremely clean, for one. The staff is also very friendly and helpful whenever you need them for anything. Remember to sign up for the Rewards program if it will benefit you! A free night for every 3 or 4 nights you stay in a HIE.The breakfasts were adequate to get you going in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded September 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2013</t>
+  </si>
+  <si>
+    <t>This was my introduction to Holiday Inns, and it sold me on using them for my business and personal purposes.The hotel is extremely clean, for one. The staff is also very friendly and helpful whenever you need them for anything. Remember to sign up for the Rewards program if it will benefit you! A free night for every 3 or 4 nights you stay in a HIE.The breakfasts were adequate to get you going in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r168095146-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>168095146</t>
+  </si>
+  <si>
+    <t>07/18/2013</t>
+  </si>
+  <si>
+    <t>Fraudulent reservation. Horrible customer service.</t>
+  </si>
+  <si>
+    <t>Online I indicated that we had 4 adults and 1 child. Booked a room that said it "could accomodate up to 5 people". Upon arrival, the room had 2 queen beds and fire code prevented a rollaway bed. Was told this was my fault even though I had paperwork clearly indicating they reserved me the room for 5 people. After not accepting their recommendation to sleep 3 in a queen bed I asked if the hotel was full. It was not - there were available rooms. I asked for an additional room at no charge to support my reservation details. Onsight staff was not empowered to solve problem. I asked to speak wih someone who had the authority and was handed the phone. On the line was the General Manager who said I was "an annoyance" and that she was "going back to sleep". I was told I could purchase a second room at a special discounted rate or I could sleep in my car. During discussions it was also mentioned that my 11 year-old daughter could sleep on the floor which brought her to tears - it was late and we had been traveling. This was an old fashion Bait and Switch coupled with horrific customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded August 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2013</t>
+  </si>
+  <si>
+    <t>Online I indicated that we had 4 adults and 1 child. Booked a room that said it "could accomodate up to 5 people". Upon arrival, the room had 2 queen beds and fire code prevented a rollaway bed. Was told this was my fault even though I had paperwork clearly indicating they reserved me the room for 5 people. After not accepting their recommendation to sleep 3 in a queen bed I asked if the hotel was full. It was not - there were available rooms. I asked for an additional room at no charge to support my reservation details. Onsight staff was not empowered to solve problem. I asked to speak wih someone who had the authority and was handed the phone. On the line was the General Manager who said I was "an annoyance" and that she was "going back to sleep". I was told I could purchase a second room at a special discounted rate or I could sleep in my car. During discussions it was also mentioned that my 11 year-old daughter could sleep on the floor which brought her to tears - it was late and we had been traveling. This was an old fashion Bait and Switch coupled with horrific customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r164494140-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>164494140</t>
+  </si>
+  <si>
+    <t>06/19/2013</t>
+  </si>
+  <si>
+    <t>Great new hotel</t>
+  </si>
+  <si>
+    <t>We are always happy with HIE but this one was exceptional.It is a new build hotel so everything looked perfect The room was well appointed with a walk in shower and breakfast was everything we needed.From the hotel we went to the nearby Animal Sancturary which is definately worth a visit if you want to see bears, lions and tigers freely roaming.MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded June 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2013</t>
+  </si>
+  <si>
+    <t>We are always happy with HIE but this one was exceptional.It is a new build hotel so everything looked perfect The room was well appointed with a walk in shower and breakfast was everything we needed.From the hotel we went to the nearby Animal Sancturary which is definately worth a visit if you want to see bears, lions and tigers freely roaming.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r158527567-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>158527567</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>Up to standard HIE</t>
+  </si>
+  <si>
+    <t>Nice modern well appointed hotel. Warm welcome by Mary. No restaurants within walking distance. Left my alarm clock behind and called that night but it didn't turn up. Still recommend this hotel. Have been avoiding HIE properties since many of them started one, or even two, nights  notice to cancel. Hard to do when you're on a service/maintenance trip (and with weather!). This hotel didn't pull that stunt</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r154456641-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>154456641</t>
+  </si>
+  <si>
+    <t>03/13/2013</t>
+  </si>
+  <si>
+    <t>Front Range</t>
+  </si>
+  <si>
+    <t>My stay at this hotel was very nice. The staff took very good care of me and all of my needs!! I had only planned for a one nights stay, but my job went long and they had me a room with no problems and I was able to check in ealy.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded March 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2013</t>
+  </si>
+  <si>
+    <t>My stay at this hotel was very nice. The staff took very good care of me and all of my needs!! I had only planned for a one nights stay, but my job went long and they had me a room with no problems and I was able to check in ealy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r152861091-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>152861091</t>
+  </si>
+  <si>
+    <t>02/23/2013</t>
+  </si>
+  <si>
+    <t>New Property - Very Nice:)</t>
+  </si>
+  <si>
+    <t>They did a very nice job with this one.  The decor is awesome, service was wonderful and location is just 20 minutes from the airport.  Very close to Buffalo Wild Wings, Chilis, ChickFilA and decent shopping including JCP with Sephora, Target, Kohls, Home Depot, Lowes, etc.  As always breakfast at HI Express is above good.  My son loves the pancake machine, hubby loves the cinnamon rolls and I can always get eggs or yogurt.  This will become a regular for us.  Oh yeah, pool and hot tub were nice as well and the fitness facility looked above adequate!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded February 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2013</t>
+  </si>
+  <si>
+    <t>They did a very nice job with this one.  The decor is awesome, service was wonderful and location is just 20 minutes from the airport.  Very close to Buffalo Wild Wings, Chilis, ChickFilA and decent shopping including JCP with Sephora, Target, Kohls, Home Depot, Lowes, etc.  As always breakfast at HI Express is above good.  My son loves the pancake machine, hubby loves the cinnamon rolls and I can always get eggs or yogurt.  This will become a regular for us.  Oh yeah, pool and hot tub were nice as well and the fitness facility looked above adequate!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r152139241-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>152139241</t>
+  </si>
+  <si>
+    <t>02/14/2013</t>
+  </si>
+  <si>
+    <t>Great hotel, especially staff!</t>
+  </si>
+  <si>
+    <t>Where do I start with this review?
+The HIE in Brighton, CO is a fantastic hotel, I would know, I had 40 nights there last year.
+The staff at this hotel is what sells it.  I've never seen a frowning face here.  Kitty, one of the front desk ladies, is especially dear to me.  She is always in high spirits and is interested in your well-being.  She is always quick to ask how my day is, how my family is doing, or if I need anything.  There are so many wonderful ladies that work the front desk though.
+The rooms are always clean and appear new.  Never had a cleanliness problem and I'm fairly OCD.
+The interior design of the hotel is fantastic, I would call it funky fresh.  Funky being a positive thing.  The colors and shapes of the foyer carpeting are very 60's, but also inviting.  They have a very nice sitting area with a TV and a fireplace.  I've never needed to sit down because my room has always been ready to go.
+The dining area is nice.  I usually grab my morning Plain Oatmeal and add banana slices.  I wish I knew her name, but the lady that maintains the breakfast bar is great.  She always holds back some plain oatmeal packets for me so if they run out, I can still get my morning oatmeal.  Thank you!  Bananas are always fresh (which is a hard...Where do I start with this review?The HIE in Brighton, CO is a fantastic hotel, I would know, I had 40 nights there last year.The staff at this hotel is what sells it.  I've never seen a frowning face here.  Kitty, one of the front desk ladies, is especially dear to me.  She is always in high spirits and is interested in your well-being.  She is always quick to ask how my day is, how my family is doing, or if I need anything.  There are so many wonderful ladies that work the front desk though.The rooms are always clean and appear new.  Never had a cleanliness problem and I'm fairly OCD.The interior design of the hotel is fantastic, I would call it funky fresh.  Funky being a positive thing.  The colors and shapes of the foyer carpeting are very 60's, but also inviting.  They have a very nice sitting area with a TV and a fireplace.  I've never needed to sit down because my room has always been ready to go.The dining area is nice.  I usually grab my morning Plain Oatmeal and add banana slices.  I wish I knew her name, but the lady that maintains the breakfast bar is great.  She always holds back some plain oatmeal packets for me so if they run out, I can still get my morning oatmeal.  Thank you!  Bananas are always fresh (which is a hard thing to do).  They also have eggs, bacon, sausage, cereal, etc. but that's not my bag, so I can't review it.My only critique of the hotel is the workout facilities and swimming pool.  The workout facilities are adequate, but a little small.  And the pool isn't great for trying to swim laps.  The Jacuzzi however is nice.  Unfortunately, these aren't things that could be changed and I won't remove any stars, because the rest of the hotel AND the STAFF make up for it.This hotel is extremely convenient to I-74, Platte Valley Medical Center and the surrounding shopping complexes, but a bit away from other things.If you have to pull off for the night, or need extended hotel arrangements like I did, Do NOT hesitate to put this at the top of your list.  No regrets.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded February 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2013</t>
+  </si>
+  <si>
+    <t>Where do I start with this review?
+The HIE in Brighton, CO is a fantastic hotel, I would know, I had 40 nights there last year.
+The staff at this hotel is what sells it.  I've never seen a frowning face here.  Kitty, one of the front desk ladies, is especially dear to me.  She is always in high spirits and is interested in your well-being.  She is always quick to ask how my day is, how my family is doing, or if I need anything.  There are so many wonderful ladies that work the front desk though.
+The rooms are always clean and appear new.  Never had a cleanliness problem and I'm fairly OCD.
+The interior design of the hotel is fantastic, I would call it funky fresh.  Funky being a positive thing.  The colors and shapes of the foyer carpeting are very 60's, but also inviting.  They have a very nice sitting area with a TV and a fireplace.  I've never needed to sit down because my room has always been ready to go.
+The dining area is nice.  I usually grab my morning Plain Oatmeal and add banana slices.  I wish I knew her name, but the lady that maintains the breakfast bar is great.  She always holds back some plain oatmeal packets for me so if they run out, I can still get my morning oatmeal.  Thank you!  Bananas are always fresh (which is a hard...Where do I start with this review?The HIE in Brighton, CO is a fantastic hotel, I would know, I had 40 nights there last year.The staff at this hotel is what sells it.  I've never seen a frowning face here.  Kitty, one of the front desk ladies, is especially dear to me.  She is always in high spirits and is interested in your well-being.  She is always quick to ask how my day is, how my family is doing, or if I need anything.  There are so many wonderful ladies that work the front desk though.The rooms are always clean and appear new.  Never had a cleanliness problem and I'm fairly OCD.The interior design of the hotel is fantastic, I would call it funky fresh.  Funky being a positive thing.  The colors and shapes of the foyer carpeting are very 60's, but also inviting.  They have a very nice sitting area with a TV and a fireplace.  I've never needed to sit down because my room has always been ready to go.The dining area is nice.  I usually grab my morning Plain Oatmeal and add banana slices.  I wish I knew her name, but the lady that maintains the breakfast bar is great.  She always holds back some plain oatmeal packets for me so if they run out, I can still get my morning oatmeal.  Thank you!  Bananas are always fresh (which is a hard thing to do).  They also have eggs, bacon, sausage, cereal, etc. but that's not my bag, so I can't review it.My only critique of the hotel is the workout facilities and swimming pool.  The workout facilities are adequate, but a little small.  And the pool isn't great for trying to swim laps.  The Jacuzzi however is nice.  Unfortunately, these aren't things that could be changed and I won't remove any stars, because the rest of the hotel AND the STAFF make up for it.This hotel is extremely convenient to I-74, Platte Valley Medical Center and the surrounding shopping complexes, but a bit away from other things.If you have to pull off for the night, or need extended hotel arrangements like I did, Do NOT hesitate to put this at the top of your list.  No regrets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r150617186-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>150617186</t>
+  </si>
+  <si>
+    <t>01/25/2013</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>The hotel was very new and modern. The lobby was clean as well as the breakfast area and rooms. The front staff was very helpful with a fast check in and out. Would certainly return. The hotel was so new that my GPS did not know it was there.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded January 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2013</t>
+  </si>
+  <si>
+    <t>The hotel was very new and modern. The lobby was clean as well as the breakfast area and rooms. The front staff was very helpful with a fast check in and out. Would certainly return. The hotel was so new that my GPS did not know it was there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r147411931-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>147411931</t>
+  </si>
+  <si>
+    <t>12/13/2012</t>
+  </si>
+  <si>
+    <t>Quiet and comfortable</t>
+  </si>
+  <si>
+    <t>My stay here was wonderful. I was the last guest of the night to check in that they were expecting and they welcomed me by name when I came through the door. The staff was friendly. My room was quiet and the bed comfortable. Refrigerator, coffee pot and microwave all in room. It was 20 minutes from the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded December 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2012</t>
+  </si>
+  <si>
+    <t>My stay here was wonderful. I was the last guest of the night to check in that they were expecting and they welcomed me by name when I came through the door. The staff was friendly. My room was quiet and the bed comfortable. Refrigerator, coffee pot and microwave all in room. It was 20 minutes from the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r146259042-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>146259042</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>Beautiful new hotel and economical</t>
+  </si>
+  <si>
+    <t>I experienced the best service ever here.  I checked in way early and they were so accommodating.  Rooms were fresh, clean and nice decor.  Beds were comfortable and so were the pillows.  Room had microwave and fridge which was nice.  Close to shopping and restaurants.   I'll always stay here when flying out from Denver International Airport.  It's only 15 mins away and you have a new hotel to stay in.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded November 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2012</t>
+  </si>
+  <si>
+    <t>I experienced the best service ever here.  I checked in way early and they were so accommodating.  Rooms were fresh, clean and nice decor.  Beds were comfortable and so were the pillows.  Room had microwave and fridge which was nice.  Close to shopping and restaurants.   I'll always stay here when flying out from Denver International Airport.  It's only 15 mins away and you have a new hotel to stay in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r139519799-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>139519799</t>
+  </si>
+  <si>
+    <t>09/05/2012</t>
+  </si>
+  <si>
+    <t>Awesome Stay</t>
+  </si>
+  <si>
+    <t>I made my reservation online and arrived much earlier than planned.  When I went in to see how early we could check in, we were met w/great hospitality!  Kitty gave us a room right away, informed us of the local attractions like Barr Lake and Barr State Park.  She also told us of the local restaurants and movie theater.  My teenager loved the salt water pool and I enjoyed the whirlpool.  The rooms were modern and clean; the beds had douvets instead of those ugly old bed spreads.  I had told Kitty and the others that we were in town for an interview and the whole staff was very supportive; they wished me luck in the morning and inquired after the fact.  The staff and the cleanliness of the room and the property overall made for a pleasurable trip.  Thanks go out to all the employees there!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>I made my reservation online and arrived much earlier than planned.  When I went in to see how early we could check in, we were met w/great hospitality!  Kitty gave us a room right away, informed us of the local attractions like Barr Lake and Barr State Park.  She also told us of the local restaurants and movie theater.  My teenager loved the salt water pool and I enjoyed the whirlpool.  The rooms were modern and clean; the beds had douvets instead of those ugly old bed spreads.  I had told Kitty and the others that we were in town for an interview and the whole staff was very supportive; they wished me luck in the morning and inquired after the fact.  The staff and the cleanliness of the room and the property overall made for a pleasurable trip.  Thanks go out to all the employees there!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r138467479-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>138467479</t>
+  </si>
+  <si>
+    <t>08/26/2012</t>
+  </si>
+  <si>
+    <t>5 Star Hotel in 4 Star Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a really great Holiday Inn Express facility.  Newer, well maintained with excellent staff.  Attention to detail is excellent, with a first class exercise facility and excellent personnel.  My major "ding" is the fact that it was built in an area northeast of Denver that was expected to grow rapidly, and just hasn't yet.  As such, it was a hassle to find a gas station close by (there were none), and eating facilities were a little limited, though adequate. </t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r138037027-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>138037027</t>
+  </si>
+  <si>
+    <t>08/22/2012</t>
+  </si>
+  <si>
+    <t>Great experience!</t>
+  </si>
+  <si>
+    <t>After a long day of travel, staying at this Holiday Inn was so refreshing!  It was modern and trendy - without feeling pretentious.  Service was terrific and the breakfast was yummy - they had something for everyone.  The pool was exceptionally clean, a huge plus for this picky mom!  I would recommend this hotel to everyone - from the business traveler to vacationing families. If we are ever in the area again, this is a definite stop.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r136823722-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>136823722</t>
+  </si>
+  <si>
+    <t>08/10/2012</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>From my experience, this is the best hotel in Brighton.  Every stay at this hotel has been well above average.  The hotel is the standard Holiday Inn Express as far as rooms and amenities.  The staff is terrific.  The front desk will try to honor every request.  Tanya even contacted me when a package arrived weeks after my stay.  House keeping is excellent and very friendly.  My only issue was immediately addressed.  Maintenance takes the job very serious.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r136345689-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>136345689</t>
+  </si>
+  <si>
+    <t>08/05/2012</t>
+  </si>
+  <si>
+    <t>Convenient location</t>
+  </si>
+  <si>
+    <t>The newest looking Holiday Inn Express room I have been in yet.  Very modern and comfortable.  Staff was very friendly and helpful.  Very close to the interstate so easy off and on.  Nice dining and shopping available close by.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r135678973-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>135678973</t>
+  </si>
+  <si>
+    <t>07/29/2012</t>
+  </si>
+  <si>
+    <t>Beautiful hotel!  Always stay here before leaving DIA.  Close to shopping and restaurants--Target, Kohl's, Penny's, Chili's, Chic Filet, Wemdy's, McDonalds.  Had to leave before breakfast so they fixed us a to go breakfast!!  Super!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r127162290-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>127162290</t>
+  </si>
+  <si>
+    <t>04/02/2012</t>
+  </si>
+  <si>
+    <t>Great customer Service</t>
+  </si>
+  <si>
+    <t>We  stayed at the hotel for a family reunion.Couldn't have been happier.Staff was  terrific! Hotel is clean and comfortable.Hot breakfast.No complaints.Will stay there again when I am in town.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r126352512-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>126352512</t>
+  </si>
+  <si>
+    <t>03/19/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel - Excellent Staff</t>
+  </si>
+  <si>
+    <t>We booked the hotel for the wedding party for our son over St. Patty's Day weekend. I will tell you, having traveled literally all over the world on business this hotel exceeded my expectations. Kitty and Tanya went above and beyond the call of duty to make our stay absolutely wonderful. We could not have been treated better. In all my years of corporate travel (30+) I have never experienced this level of service, not even at the pricy hotels we are all familiar with (trust me, I have stayed at them all). I highly recommend this hotel!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r125610248-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>125610248</t>
+  </si>
+  <si>
+    <t>03/04/2012</t>
+  </si>
+  <si>
+    <t>Expected more after reading reviews</t>
+  </si>
+  <si>
+    <t>We were surprised by our experience with this hotel after reading the glowing reports. It was a very ordinary Holiday Inn Express located in the middle of nowhere.  The area around it looks like it was going to be developed and, then, the recession hit.  There had been a snow storm a day or two before we arrived and the front entrance had not been well-plowed. You had to drive over loose, piled up snow to get to the parking lot and front entrance.  There are no restaurants anywhere near it so driving was necessary.  We found it over-priced for its' location and ambience.  None of the staff members we encountered were outstanding and we were not recognized as Priority members.  It was clean and comfortable and had the usual HIE breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>DSimard, General Manager at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded March 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2012</t>
+  </si>
+  <si>
+    <t>We were surprised by our experience with this hotel after reading the glowing reports. It was a very ordinary Holiday Inn Express located in the middle of nowhere.  The area around it looks like it was going to be developed and, then, the recession hit.  There had been a snow storm a day or two before we arrived and the front entrance had not been well-plowed. You had to drive over loose, piled up snow to get to the parking lot and front entrance.  There are no restaurants anywhere near it so driving was necessary.  We found it over-priced for its' location and ambience.  None of the staff members we encountered were outstanding and we were not recognized as Priority members.  It was clean and comfortable and had the usual HIE breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r124341388-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>124341388</t>
+  </si>
+  <si>
+    <t>02/09/2012</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>I usually stay at more upscale hotels than the Holiday Inns, but business forced me to stay at the HIE in Brighton, CO. I saw it had a series of rave reviews before I got there, but I was surprised that the raves were fully earned. The front desk staff was terrific. The room nicely appointed and spacious (what they called an "Executive Suite", the best they had). The amenities were just fine. I have only good things to say about this property, which far exceeded expectations on every level.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r124152626-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>124152626</t>
+  </si>
+  <si>
+    <t>02/05/2012</t>
+  </si>
+  <si>
+    <t>Best quality, warm hospitality, pretty, comfortable</t>
+  </si>
+  <si>
+    <t>We were Brighton for a tense two week trial.  We couldn't have asked for a more comfortable home base than this pretty and friendly place.  I know all of women at the front desk by name as I do the lovely Tammy and Portia who serve breakfast each day.  They are all outstanding people who take pride in their work and in the place where they work.  The owners and managers of this fine place are doing everything right.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r123946743-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>123946743</t>
+  </si>
+  <si>
+    <t>01/31/2012</t>
+  </si>
+  <si>
+    <t>Awesome stay!</t>
+  </si>
+  <si>
+    <t>Working with Pinnacle I pretty much live in hotels. This one is definitely the best hotel. In comparison to the other hotels this one is my favorite. The TV is really awesome and the big shower is really awesome too. Many of the showers at other places are too short whereas this one has a much taller shower head good for guys my height. This is the only hotel with a walk in shower. The front desk girls are awesome the two night chicks Krystyna and Cassie are pretty cool and always make me feel welcomed and at home. Unlike other hotels, I feel like I am just another couple dollars and another customer, they make me feel valued and I feel that they have a special unique relationship with me and many other guests which is nice. They are very friendly. The maids are exceptional leaving specific details saying when they put clean sheets on the bed. My crew especially enjoys this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Working with Pinnacle I pretty much live in hotels. This one is definitely the best hotel. In comparison to the other hotels this one is my favorite. The TV is really awesome and the big shower is really awesome too. Many of the showers at other places are too short whereas this one has a much taller shower head good for guys my height. This is the only hotel with a walk in shower. The front desk girls are awesome the two night chicks Krystyna and Cassie are pretty cool and always make me feel welcomed and at home. Unlike other hotels, I feel like I am just another couple dollars and another customer, they make me feel valued and I feel that they have a special unique relationship with me and many other guests which is nice. They are very friendly. The maids are exceptional leaving specific details saying when they put clean sheets on the bed. My crew especially enjoys this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r122164873-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>122164873</t>
+  </si>
+  <si>
+    <t>12/27/2011</t>
+  </si>
+  <si>
+    <t>Great choice great location</t>
+  </si>
+  <si>
+    <t>Traveling west from the midwest looking for nice place to rest for the night before heading into the mountains this wonderful hotel more than met our expectations.  Modern, comfortable and very nicely decorated and furnished.  This hotel is obviously well managed.  The two queen suite was larger than most rooms, especially for the price.  Great beds, large screen TV and a professional and friendly staff.  Many conveniences and several restaurant choices within minutes.    KOMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>DSimard, General Manager at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded February 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2012</t>
+  </si>
+  <si>
+    <t>Traveling west from the midwest looking for nice place to rest for the night before heading into the mountains this wonderful hotel more than met our expectations.  Modern, comfortable and very nicely decorated and furnished.  This hotel is obviously well managed.  The two queen suite was larger than most rooms, especially for the price.  Great beds, large screen TV and a professional and friendly staff.  Many conveniences and several restaurant choices within minutes.    KOMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r119531305-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>119531305</t>
+  </si>
+  <si>
+    <t>10/20/2011</t>
+  </si>
+  <si>
+    <t>Friendly, clean, and new</t>
+  </si>
+  <si>
+    <t>Great from start to finish. Friendly receptionist, clean room, new building, and relaxing salt water jacuzzi. The best night out of my 15 day roadtrip!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r119221746-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>119221746</t>
+  </si>
+  <si>
+    <t>10/12/2011</t>
+  </si>
+  <si>
+    <t>Great HIE</t>
+  </si>
+  <si>
+    <t>My stay at this holiday in has been superb. The hostesses at the front desk are always cheerful and very helpful. Cassie is especially helpful; Cassie always gets me checked in and on the way to the room expediently. The complimentary breakfast in the morning is very well prepared. The pool is very nice and the hot tub is always clean. The rooms are very nice they all have a nice LCD TV that is very large. Overall very pleased with this hotel.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r117508406-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>117508406</t>
+  </si>
+  <si>
+    <t>08/31/2011</t>
+  </si>
+  <si>
+    <t>The Best Holiday Inn Express Ever!</t>
+  </si>
+  <si>
+    <t>With 30+ years working in hotels, this hotel was one of the best experiences ever!  The room was totally updated with everything you could need - the walkin shower and oriental design of the room was an unexpected treat.  The morning breakfast area and food service in the morning was the best of all the properties on the trip.  The employees from check in to the personal service of Dawn and Kitty at check out made this property the best.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>DSimard, General Manager at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded September 1, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2011</t>
+  </si>
+  <si>
+    <t>With 30+ years working in hotels, this hotel was one of the best experiences ever!  The room was totally updated with everything you could need - the walkin shower and oriental design of the room was an unexpected treat.  The morning breakfast area and food service in the morning was the best of all the properties on the trip.  The employees from check in to the personal service of Dawn and Kitty at check out made this property the best.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r117476122-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>117476122</t>
+  </si>
+  <si>
+    <t>08/30/2011</t>
+  </si>
+  <si>
+    <t>Perfect service</t>
+  </si>
+  <si>
+    <t>Really awesome hotel, perfect experience. Reception was really nice, they went the extra mile for us. The only complaint is the ordeal we had to go through with the company credit cards not having our names on them so we had to have our boss call for a CC Auth. Wish this had been figured out prior to arriving.MoreShow less</t>
+  </si>
+  <si>
+    <t>Really awesome hotel, perfect experience. Reception was really nice, they went the extra mile for us. The only complaint is the ordeal we had to go through with the company credit cards not having our names on them so we had to have our boss call for a CC Auth. Wish this had been figured out prior to arriving.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r117318947-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>117318947</t>
+  </si>
+  <si>
+    <t>08/27/2011</t>
+  </si>
+  <si>
+    <t>The most beautiful hotel we have ever visited</t>
+  </si>
+  <si>
+    <t>The entire hotel was so lux. We had never stayed in any hotel this beautiful. The beds were very comfortable, the room squeeky clean, and the staff was more than accomodating. It was a great experience and we would most definately stay there again, if we travel in that area in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>DSimard, General Manager at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded August 29, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2011</t>
+  </si>
+  <si>
+    <t>The entire hotel was so lux. We had never stayed in any hotel this beautiful. The beds were very comfortable, the room squeeky clean, and the staff was more than accomodating. It was a great experience and we would most definately stay there again, if we travel in that area in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r116596991-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>116596991</t>
+  </si>
+  <si>
+    <t>08/11/2011</t>
+  </si>
+  <si>
+    <t>Good hotel, friendly and helpful staff.</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel after a long intercontinental flight, and arrived quite late. The staff was very helpful, and the room adequate and comfortable. The breakfast included was a good start for our trip the next day.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>DSimard, Manager at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded August 16, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2011</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel after a long intercontinental flight, and arrived quite late. The staff was very helpful, and the room adequate and comfortable. The breakfast included was a good start for our trip the next day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r116403219-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>116403219</t>
+  </si>
+  <si>
+    <t>08/07/2011</t>
+  </si>
+  <si>
+    <t>Hidden Gem</t>
+  </si>
+  <si>
+    <t>As a platinum priority member, I stay at a lot of IHG properties, and this was one of the nicest rooms I have ever stayed in.  Had amazing customer service at the front desk, with everything ready for me and a free room upgrade for being a Priority Club member.  The only problem with the hotel was that it was pretty difficult to find, even with a GPS.  Any time I'm traveling on I-76, this will be my hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>As a platinum priority member, I stay at a lot of IHG properties, and this was one of the nicest rooms I have ever stayed in.  Had amazing customer service at the front desk, with everything ready for me and a free room upgrade for being a Priority Club member.  The only problem with the hotel was that it was pretty difficult to find, even with a GPS.  Any time I'm traveling on I-76, this will be my hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r116285873-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>116285873</t>
+  </si>
+  <si>
+    <t>08/04/2011</t>
+  </si>
+  <si>
+    <t>Suberb</t>
+  </si>
+  <si>
+    <t>Our Holiday Inn Express stay was excellent from beginning to end.  We were greeted by a terrific desk staffer in a beautiful lobby.  Our room was impeccably clean and beautiful!  I was really impressed by all the accessible outlets - I didn't have to crawl under the desk or behind a nightstand because each lamp had two outlets in their base.  My husband is 6'5" tall and often hits his head in the shower, but this shower head was about 7" high.  And the breakfast was far better than the typical continental breakfasts served at some hotels - there were huevos rancheros, biscuits and sausage gravy and more.All in all a wonderful experience and I'd love to come back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Our Holiday Inn Express stay was excellent from beginning to end.  We were greeted by a terrific desk staffer in a beautiful lobby.  Our room was impeccably clean and beautiful!  I was really impressed by all the accessible outlets - I didn't have to crawl under the desk or behind a nightstand because each lamp had two outlets in their base.  My husband is 6'5" tall and often hits his head in the shower, but this shower head was about 7" high.  And the breakfast was far better than the typical continental breakfasts served at some hotels - there were huevos rancheros, biscuits and sausage gravy and more.All in all a wonderful experience and I'd love to come back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r115253335-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>115253335</t>
+  </si>
+  <si>
+    <t>07/11/2011</t>
+  </si>
+  <si>
+    <t>HIE Brighton a first rate place to spend the night</t>
+  </si>
+  <si>
+    <t>On our trip to Utah we stopped for the night at the Brighton Holiday Inn Express because we had read all of the glowing reviews on Tripadvisor.  Let me tell you that the good reviews are well deserved and accurate.  This hotel is spotless and new, from it's lobby to it's rooms.  We stayed in a two queen suite with a pull out sofa bed, and it was the perfect configuration for a family of four. I wouldn't hesitate to stay at this hotel again in the future.  A great hotel and a great value.MoreShow less</t>
+  </si>
+  <si>
+    <t>MKonrad, General Manager at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded July 21, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2011</t>
+  </si>
+  <si>
+    <t>On our trip to Utah we stopped for the night at the Brighton Holiday Inn Express because we had read all of the glowing reviews on Tripadvisor.  Let me tell you that the good reviews are well deserved and accurate.  This hotel is spotless and new, from it's lobby to it's rooms.  We stayed in a two queen suite with a pull out sofa bed, and it was the perfect configuration for a family of four. I wouldn't hesitate to stay at this hotel again in the future.  A great hotel and a great value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r115214062-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>115214062</t>
+  </si>
+  <si>
+    <t>07/10/2011</t>
+  </si>
+  <si>
+    <t>Excellent hotel, close to Denver airport as well !</t>
+  </si>
+  <si>
+    <t>This hotel is almost 2 years old and within 20 minutes drive coming from DIA.Rooms are clean, large and nice, beds are comfortable, windows can slide open, shower is good. Breakfast is much better than average and the restaurant looks very decent too, great job. The ladies at the reception are very friendly. And also parking is not a problem at all.Hotel is located in a new development area and is not really easy to find, but the location is nice. We stayed twice this holiday, before and after we had to go to the airport, that was a great idea after all, because its hardly 20 minutes drive to the rentalcars places of DIA.Its close near the highway, but you hear no noise coming from the road. Our room was on the topfloor, (sound) isolation is average. Excellent job here !!MoreShow less</t>
+  </si>
+  <si>
+    <t>DSimard, General Manager at Holiday Inn Express Hotel &amp; Suites Denver Northeast - Brighton, responded to this reviewResponded July 21, 2011</t>
+  </si>
+  <si>
+    <t>This hotel is almost 2 years old and within 20 minutes drive coming from DIA.Rooms are clean, large and nice, beds are comfortable, windows can slide open, shower is good. Breakfast is much better than average and the restaurant looks very decent too, great job. The ladies at the reception are very friendly. And also parking is not a problem at all.Hotel is located in a new development area and is not really easy to find, but the location is nice. We stayed twice this holiday, before and after we had to go to the airport, that was a great idea after all, because its hardly 20 minutes drive to the rentalcars places of DIA.Its close near the highway, but you hear no noise coming from the road. Our room was on the topfloor, (sound) isolation is average. Excellent job here !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r113326073-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>113326073</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>Great stop between points A and B</t>
+  </si>
+  <si>
+    <t>This hotel is only about 18 months old, and the newness shows! The furnishings (in the lobby, pool, rooms, breakfast area) are all clean and look new.  The first thing I noticed was that the lobby had a nice smell (but not overbearing) and I don't have any complaints about the front desk service! The salt water pool was unique (but really, it seemed like any other pool).  It was the little things that really made our stay memorable:*Breakfast starts at 6am daily. We like to get on the road early, so this was a major plus! Usually we're long gone before a hotel's breakfast starts.*Location is great if you're on the road.  It's on the outskirts of Denver (so not good if you're looking to go downtown), but right off the interstate.  It's in the middle of a shopping mall that's still growing.  There's a few restuarants in the complex now, I'm sure more will be added in the future. Big pluses for convenience!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is only about 18 months old, and the newness shows! The furnishings (in the lobby, pool, rooms, breakfast area) are all clean and look new.  The first thing I noticed was that the lobby had a nice smell (but not overbearing) and I don't have any complaints about the front desk service! The salt water pool was unique (but really, it seemed like any other pool).  It was the little things that really made our stay memorable:*Breakfast starts at 6am daily. We like to get on the road early, so this was a major plus! Usually we're long gone before a hotel's breakfast starts.*Location is great if you're on the road.  It's on the outskirts of Denver (so not good if you're looking to go downtown), but right off the interstate.  It's in the middle of a shopping mall that's still growing.  There's a few restuarants in the complex now, I'm sure more will be added in the future. Big pluses for convenience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r107800669-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>107800669</t>
+  </si>
+  <si>
+    <t>05/11/2011</t>
+  </si>
+  <si>
+    <t>Hotel was excellent in all respects, amenities, employees and facility.</t>
+  </si>
+  <si>
+    <t>My stay at the Denver Northeast/Brighton Hotel was excellent and satisfactory in all respects, from the friendly employees to the fresh fruit, fresh coffee, great exercise room and under 20 minutes to DIA.  I travel extensively on and stay in Hotels up to 100 nights per year for the last 20+ years. The Hotel is top rate, and am anxious to return on my next visit to the Denver area!</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r104673682-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>104673682</t>
+  </si>
+  <si>
+    <t>04/19/2011</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel very welcoming!!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 3 nights.  My husband was there for work and me I was there for leisure, because I get to travel with him sometimes.  Anyway this hotel is very nice, I think we were told it is only 17 mos. old.  They are taking very good care of it.
+When we got there we were already upgraded to a suite because of husbands points(status)with HIE.  Check in was fast and easy.  Lobby of hotel is very nice and homey.  Clerks were very nice and helpful when we needed to know directions or something about places to eat in town.  This hotel has a few close restaurants within driving distance.  Chili's, Buffalo wild wing, subway, McDonalds don't remember if there was any others. 
+Back to the hotel.  Our room was so nice.  Had lots of room.  King size bed, sofa, desk, flat screen tv.    Bed was so comfortable I never wanted to get out of bed.  Bathroom had plenty of room not cramped like some.  Nice big vanity.  Remember this was a suite not sure what regular rooms look like.
+Pool area looked nice.  But we did not use. They do have an exercise room too. UMM, but I didn't use it either.  MY BAD!!   Breakfast room was very big with plenty of tables to sit at for breakfast .  Breakfast was the same as they always have at HIE.  Scrambled eggs, sausage, gravy/biscuits, and they...We stayed at this hotel for 3 nights.  My husband was there for work and me I was there for leisure, because I get to travel with him sometimes.  Anyway this hotel is very nice, I think we were told it is only 17 mos. old.  They are taking very good care of it.When we got there we were already upgraded to a suite because of husbands points(status)with HIE.  Check in was fast and easy.  Lobby of hotel is very nice and homey.  Clerks were very nice and helpful when we needed to know directions or something about places to eat in town.  This hotel has a few close restaurants within driving distance.  Chili's, Buffalo wild wing, subway, McDonalds don't remember if there was any others. Back to the hotel.  Our room was so nice.  Had lots of room.  King size bed, sofa, desk, flat screen tv.    Bed was so comfortable I never wanted to get out of bed.  Bathroom had plenty of room not cramped like some.  Nice big vanity.  Remember this was a suite not sure what regular rooms look like.Pool area looked nice.  But we did not use. They do have an exercise room too. UMM, but I didn't use it either.  MY BAD!!   Breakfast room was very big with plenty of tables to sit at for breakfast .  Breakfast was the same as they always have at HIE.  Scrambled eggs, sausage, gravy/biscuits, and they have added pancakes to their bar.  You have to put the in their pancake maker looked easy but didn't ever try it.   Cleaning maids did a great job too.  Very pleased with them.Overall I would definitely stay at this hotel again and would recommend it for everyone.  If anyone has a question about it please feel free to email me.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 3 nights.  My husband was there for work and me I was there for leisure, because I get to travel with him sometimes.  Anyway this hotel is very nice, I think we were told it is only 17 mos. old.  They are taking very good care of it.
+When we got there we were already upgraded to a suite because of husbands points(status)with HIE.  Check in was fast and easy.  Lobby of hotel is very nice and homey.  Clerks were very nice and helpful when we needed to know directions or something about places to eat in town.  This hotel has a few close restaurants within driving distance.  Chili's, Buffalo wild wing, subway, McDonalds don't remember if there was any others. 
+Back to the hotel.  Our room was so nice.  Had lots of room.  King size bed, sofa, desk, flat screen tv.    Bed was so comfortable I never wanted to get out of bed.  Bathroom had plenty of room not cramped like some.  Nice big vanity.  Remember this was a suite not sure what regular rooms look like.
+Pool area looked nice.  But we did not use. They do have an exercise room too. UMM, but I didn't use it either.  MY BAD!!   Breakfast room was very big with plenty of tables to sit at for breakfast .  Breakfast was the same as they always have at HIE.  Scrambled eggs, sausage, gravy/biscuits, and they...We stayed at this hotel for 3 nights.  My husband was there for work and me I was there for leisure, because I get to travel with him sometimes.  Anyway this hotel is very nice, I think we were told it is only 17 mos. old.  They are taking very good care of it.When we got there we were already upgraded to a suite because of husbands points(status)with HIE.  Check in was fast and easy.  Lobby of hotel is very nice and homey.  Clerks were very nice and helpful when we needed to know directions or something about places to eat in town.  This hotel has a few close restaurants within driving distance.  Chili's, Buffalo wild wing, subway, McDonalds don't remember if there was any others. Back to the hotel.  Our room was so nice.  Had lots of room.  King size bed, sofa, desk, flat screen tv.    Bed was so comfortable I never wanted to get out of bed.  Bathroom had plenty of room not cramped like some.  Nice big vanity.  Remember this was a suite not sure what regular rooms look like.Pool area looked nice.  But we did not use. They do have an exercise room too. UMM, but I didn't use it either.  MY BAD!!   Breakfast room was very big with plenty of tables to sit at for breakfast .  Breakfast was the same as they always have at HIE.  Scrambled eggs, sausage, gravy/biscuits, and they have added pancakes to their bar.  You have to put the in their pancake maker looked easy but didn't ever try it.   Cleaning maids did a great job too.  Very pleased with them.Overall I would definitely stay at this hotel again and would recommend it for everyone.  If anyone has a question about it please feel free to email me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r101193195-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>101193195</t>
+  </si>
+  <si>
+    <t>03/22/2011</t>
+  </si>
+  <si>
+    <t>Outstanding service with an impressive presentation</t>
+  </si>
+  <si>
+    <t>This is a beautiful property, facilities look brand new and very inviting.  The only thing more impressive than the hotel presentation is the service provided by the employees.  Without exception, the front desk personnel were courteous, helpful, and went out of their way to make me feel welcome.  Dawn and Krystina should be "poster front desk employees" for Holiday Inn!  My first time here, but will go out of my way to stay here again!!</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r88706093-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>88706093</t>
+  </si>
+  <si>
+    <t>11/30/2010</t>
+  </si>
+  <si>
+    <t>What great staff!</t>
+  </si>
+  <si>
+    <t>My brother-in-law and I stayed overnight on my first Priority Club Reward night with Holiday Inn and were very impressed with both the staff and the hotel.  Kitty is one of the staff members who was very helpful as she notified us we had left valuables in the room and shipped them to our next hotel location in another state at no cost.  We are definitely planning on staying here again in the future.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r87090097-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>87090097</t>
+  </si>
+  <si>
+    <t>11/14/2010</t>
+  </si>
+  <si>
+    <t>Great hotel if you need to stay near the court house or hospital</t>
+  </si>
+  <si>
+    <t>The hotel itself is a very pleasant surprise! Very nice lobby area.  Great front desk staff!!!  Rooms are spacious with a refrigerator and micro.  Nice decor and great beds, nice pillows. There is a shopping area near the hotel if you need a Target, Kohls, some deli take out etc,  It is a bit removed from all else!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r85395528-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>85395528</t>
+  </si>
+  <si>
+    <t>10/30/2010</t>
+  </si>
+  <si>
+    <t>WILL NOT BE DISAPPOINTED!!!</t>
+  </si>
+  <si>
+    <t>I had an excellent stay from beginning to end. All of the staff members (Shane, Maria, etc) were all VERY courteous/helpful/pleasant towards myself and others. I loved how clean the hotel was from top to bottom....so modern looking which I love. The medical clinic had recommended this hotel and I am extremely glad I didn't stay anywhere else...not even a Westin! The question is, would I even allow my grandmother to stay here...ABSOLUTELY!! THANK YOU TO EVERYONE WHO MADE MY STAY SO ENJOYABLE AND COMFORTABLE!!!-B. Kassab</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r83219438-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>83219438</t>
+  </si>
+  <si>
+    <t>10/12/2010</t>
+  </si>
+  <si>
+    <t>Awesome cinnamon rolls!</t>
+  </si>
+  <si>
+    <t>We stayed in a Holiday Inn Express everytime we stopped and this one was especially nice because it was brand new.  It was nice to have a regular, glass enclosed shower instead of the normal tub shower.  The room came with microwave and frig.  Some of the other Holiday Inn Express' give you an option for the suite (microwave and frig) but this one did not.  The price is a little higher than other hotels but the breakfast makes it worth it.  Very nice accommodations.  Plus, sign up for "Priority Club" and get the added perks!</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r81057149-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>81057149</t>
+  </si>
+  <si>
+    <t>09/26/2010</t>
+  </si>
+  <si>
+    <t>Five Star Hotel for an awesome Price!</t>
+  </si>
+  <si>
+    <t>My mother wanted to go to Brighton to visit her sister.  I booked us at the Holiday Inn Express.  This place is FABULOUS!  The rooms were spacious, decorated beautifully, amenities 5 Stars.  The staff were incredible.  Kitty was so friendly and knowledgeable for helping us navigate the area as the day "concierge" .  Jenny did a wonderful daily breakfast buffet.  We felt like we were at home.  There was never a need unattended.  There is a "Super Target" walking distance and the freeway access is perfect.  I would HIGHLY recommend this hotel and go back.  One of the best hotel's I have ever stayed in!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r80987662-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>80987662</t>
+  </si>
+  <si>
+    <t>09/25/2010</t>
+  </si>
+  <si>
+    <t>Of all the places we stayed in Denver this was the best</t>
+  </si>
+  <si>
+    <t>The staff was very helpful with driving directions and suggestions for restaurants and activities.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r75779933-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>75779933</t>
+  </si>
+  <si>
+    <t>08/18/2010</t>
+  </si>
+  <si>
+    <t>New and Clean</t>
+  </si>
+  <si>
+    <t>Drove all the way from Twin Cities in one day and this was the perfect place to stop before entering Denver.  Clean and brand new!  Room is huge with very comfortable beds.  Bathroom is great size, all in all a great place to stop after a long day's drive.  The only trouble is finding it.   The best exit is to use the 144th Ave. Exit, not the exit prior as the road signs claim.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r74030054-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>74030054</t>
+  </si>
+  <si>
+    <t>08/06/2010</t>
+  </si>
+  <si>
+    <t>A Great Place To Stay</t>
+  </si>
+  <si>
+    <t>I travel to Denver twice a month &amp; I stay at the Holiday Inn Express, Between the Hotel Staff (front desk, maid's, etc.&amp; managment) They go Above &amp; Beyond your Wants &amp; Needs. The Rooms are very Large &amp; well Appointed. Their is a Crystal Clear Indoor Pool, &amp; Shopping within Walking Distance. Overall you could not get a Better Value for your Buck.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r73964047-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>73964047</t>
+  </si>
+  <si>
+    <t>08/05/2010</t>
+  </si>
+  <si>
+    <t>Excellent overnight stay at Holiday Inn Express, Brighton, CO</t>
+  </si>
+  <si>
+    <t>New hotel (only open a year). Bottled water and snacks were waiting our late check-in.  Staff was particularly pleasant and helpful, especially Kitty, who even went online to run off a crossword from a previous newspaper and sent us off the next day  with water and snacks again.  Location is right next to the hospital, and lots of restaurants and stores right down the road.  Great jogging area!  Highly recommended!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r66996348-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>66996348</t>
+  </si>
+  <si>
+    <t>06/09/2010</t>
+  </si>
+  <si>
+    <t>This hotel has an extremely friendly and helpful staff.</t>
+  </si>
+  <si>
+    <t>This hotel has an extremely friendly and helpful staff.  It is very clean new hotel. Quiet. Great breakfast. easy access off freeway. Easy parking for larger vehicles. Food and JC Pennys,  Super Target, Khols right there for those neccesities when traveling. H. Barry</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r64989543-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>64989543</t>
+  </si>
+  <si>
+    <t>05/22/2010</t>
+  </si>
+  <si>
+    <t>A very pleasant surprise and a definite return stay location</t>
+  </si>
+  <si>
+    <t>A very new, nice hotel, with a very attentive and service oriented staff.  I arrived at this location after a business trip became extended by an additional week.  I needed clothes dry cleaned quickly...the staff figured it out quickly...and with a SMILE.Nice amenities and very clean, new rooms make this facility a traveler's haven.  Only two slight drawbacks: 1) VERY new facility makes for some construction smell...though this will go away with time and it is a very clean location 2) There is a train line relatively close by but that is a drawback of any hotel in easy proximity to this area...you get used to it.  I definitely will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>A very new, nice hotel, with a very attentive and service oriented staff.  I arrived at this location after a business trip became extended by an additional week.  I needed clothes dry cleaned quickly...the staff figured it out quickly...and with a SMILE.Nice amenities and very clean, new rooms make this facility a traveler's haven.  Only two slight drawbacks: 1) VERY new facility makes for some construction smell...though this will go away with time and it is a very clean location 2) There is a train line relatively close by but that is a drawback of any hotel in easy proximity to this area...you get used to it.  I definitely will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r63650706-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>63650706</t>
+  </si>
+  <si>
+    <t>05/09/2010</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I have traveled for 20 plus years in the restaurant business.  I recenlty stayed at the Holiday Inn express in Brighton.  Besides the hotel was clean and quite.  The team there was the most upbeat and friedliness group I have seen in a long time.  I was there for 5 weeks and it was great.Thank you,Gary</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r61636614-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>61636614</t>
+  </si>
+  <si>
+    <t>04/15/2010</t>
+  </si>
+  <si>
+    <t>Excellent hotel with great service from staff.</t>
+  </si>
+  <si>
+    <t>Hotel was new and rooms were top notch, I'm a platinum member and would recomend this hotel to everyone. Got excellent service from Nathan and Krystyna at the front desk and the gym and pool were top notch looking even though I didn't get to enjoy either because of time restraints.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r60742999-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>60742999</t>
+  </si>
+  <si>
+    <t>04/08/2010</t>
+  </si>
+  <si>
+    <t>A freindly, restfull night after a long hard days drive</t>
+  </si>
+  <si>
+    <t>After a long drive from Grants, NM to the Holiday Inn Express in Brighton, CO. , I was greeted by freindly front desk clerks who made my check-in a delight. The hotel and my suite were beautiful. I had a much needed restfull nights sleep and a tasty continental breakfast. I would recommend this hotel to everyone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r60487609-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>60487609</t>
+  </si>
+  <si>
+    <t>04/05/2010</t>
+  </si>
+  <si>
+    <t>Excellent hotel, excellent service!</t>
+  </si>
+  <si>
+    <t>This is a new hotel located close to a new shopping area in Brighton.  The room was spacious and clean  with a very comfortable bed.  Great full breakfast in the morning too!</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r58916521-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>58916521</t>
+  </si>
+  <si>
+    <t>03/18/2010</t>
+  </si>
+  <si>
+    <t>Great hotel with wonderful service just outside of Denver</t>
+  </si>
+  <si>
+    <t>My husband and I were travelling to Omaha, Nebraska to take care of some funeral arrangements. We had experienced a difficult driving trip through Utah in a snow storm and we were exhausted and unable to make our destination that evening. We happened to see the Brighton Holiday Inn off of Highway 76 and pulled off to check it out. It was very late in the evening and we were greeted warmly and politely by the night auditor, Bruce. He promptly gave us a quiet, beautiful room and we had one of the best nights on our trip. The hotel is newly built and the dining facilities for breakfast were wonderful. On check-out we met Kitty, who signed us up for the rewards program and later mailed me my reading glasses, which I had forgotten in the hotel room. They were waiting for me when I got home.  We would recommend this hotel to anyone who wants to avoid staying in downtown Denver but would still like the quality of a big city hotel. Very nice staff and beautiful property.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>My husband and I were travelling to Omaha, Nebraska to take care of some funeral arrangements. We had experienced a difficult driving trip through Utah in a snow storm and we were exhausted and unable to make our destination that evening. We happened to see the Brighton Holiday Inn off of Highway 76 and pulled off to check it out. It was very late in the evening and we were greeted warmly and politely by the night auditor, Bruce. He promptly gave us a quiet, beautiful room and we had one of the best nights on our trip. The hotel is newly built and the dining facilities for breakfast were wonderful. On check-out we met Kitty, who signed us up for the rewards program and later mailed me my reading glasses, which I had forgotten in the hotel room. They were waiting for me when I got home.  We would recommend this hotel to anyone who wants to avoid staying in downtown Denver but would still like the quality of a big city hotel. Very nice staff and beautiful property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d1465045-r54708184-Holiday_Inn_Express_Hotel_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>54708184</t>
+  </si>
+  <si>
+    <t>01/29/2010</t>
+  </si>
+  <si>
+    <t>Perfect!</t>
+  </si>
+  <si>
+    <t>GREAT! WILL COME AGAIN AND USE THE POOL!The staff was just great, so very pleasant, and kind!</t>
+  </si>
+  <si>
+    <t>January 2010</t>
   </si>
 </sst>
 </file>
@@ -532,11 +3080,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +3112,7307 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>139</v>
+      </c>
+      <c r="X12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>147</v>
+      </c>
+      <c r="O13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>148</v>
+      </c>
+      <c r="X13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>165</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>166</v>
+      </c>
+      <c r="X15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>174</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>175</v>
+      </c>
+      <c r="X16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>183</v>
+      </c>
+      <c r="O17" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>184</v>
+      </c>
+      <c r="X17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>183</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>200</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>201</v>
+      </c>
+      <c r="X19" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>209</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>210</v>
+      </c>
+      <c r="X20" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>218</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>219</v>
+      </c>
+      <c r="X21" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>223</v>
+      </c>
+      <c r="J22" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22" t="s">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s">
+        <v>226</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>227</v>
+      </c>
+      <c r="X22" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>231</v>
+      </c>
+      <c r="J23" t="s">
+        <v>232</v>
+      </c>
+      <c r="K23" t="s">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s">
+        <v>234</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>200</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>235</v>
+      </c>
+      <c r="X23" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>239</v>
+      </c>
+      <c r="J24" t="s">
+        <v>240</v>
+      </c>
+      <c r="K24" t="s">
+        <v>241</v>
+      </c>
+      <c r="L24" t="s">
+        <v>242</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>200</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>243</v>
+      </c>
+      <c r="X24" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>246</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>247</v>
+      </c>
+      <c r="J25" t="s">
+        <v>248</v>
+      </c>
+      <c r="K25" t="s">
+        <v>249</v>
+      </c>
+      <c r="L25" t="s">
+        <v>250</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>251</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>252</v>
+      </c>
+      <c r="X25" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>256</v>
+      </c>
+      <c r="J26" t="s">
+        <v>257</v>
+      </c>
+      <c r="K26" t="s">
+        <v>258</v>
+      </c>
+      <c r="L26" t="s">
+        <v>259</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>260</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>261</v>
+      </c>
+      <c r="X26" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>264</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>265</v>
+      </c>
+      <c r="J27" t="s">
+        <v>266</v>
+      </c>
+      <c r="K27" t="s">
+        <v>267</v>
+      </c>
+      <c r="L27" t="s">
+        <v>268</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>269</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>270</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>271</v>
+      </c>
+      <c r="J28" t="s">
+        <v>272</v>
+      </c>
+      <c r="K28" t="s">
+        <v>273</v>
+      </c>
+      <c r="L28" t="s">
+        <v>274</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>275</v>
+      </c>
+      <c r="O28" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>276</v>
+      </c>
+      <c r="X28" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>279</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>280</v>
+      </c>
+      <c r="J29" t="s">
+        <v>281</v>
+      </c>
+      <c r="K29" t="s">
+        <v>282</v>
+      </c>
+      <c r="L29" t="s">
+        <v>283</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>284</v>
+      </c>
+      <c r="O29" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>285</v>
+      </c>
+      <c r="X29" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>288</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>289</v>
+      </c>
+      <c r="J30" t="s">
+        <v>290</v>
+      </c>
+      <c r="K30" t="s">
+        <v>291</v>
+      </c>
+      <c r="L30" t="s">
+        <v>292</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>284</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>294</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>295</v>
+      </c>
+      <c r="J31" t="s">
+        <v>296</v>
+      </c>
+      <c r="K31" t="s">
+        <v>297</v>
+      </c>
+      <c r="L31" t="s">
+        <v>298</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>299</v>
+      </c>
+      <c r="X31" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>302</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>303</v>
+      </c>
+      <c r="J32" t="s">
+        <v>304</v>
+      </c>
+      <c r="K32" t="s">
+        <v>305</v>
+      </c>
+      <c r="L32" t="s">
+        <v>306</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>284</v>
+      </c>
+      <c r="O32" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>307</v>
+      </c>
+      <c r="X32" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>310</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>311</v>
+      </c>
+      <c r="J33" t="s">
+        <v>312</v>
+      </c>
+      <c r="K33" t="s">
+        <v>313</v>
+      </c>
+      <c r="L33" t="s">
+        <v>314</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>315</v>
+      </c>
+      <c r="O33" t="s">
+        <v>70</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>316</v>
+      </c>
+      <c r="X33" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>319</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>320</v>
+      </c>
+      <c r="J34" t="s">
+        <v>321</v>
+      </c>
+      <c r="K34" t="s">
+        <v>322</v>
+      </c>
+      <c r="L34" t="s">
+        <v>323</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>324</v>
+      </c>
+      <c r="X34" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>327</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>328</v>
+      </c>
+      <c r="J35" t="s">
+        <v>329</v>
+      </c>
+      <c r="K35" t="s">
+        <v>330</v>
+      </c>
+      <c r="L35" t="s">
+        <v>331</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>332</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>333</v>
+      </c>
+      <c r="X35" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>336</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>337</v>
+      </c>
+      <c r="J36" t="s">
+        <v>338</v>
+      </c>
+      <c r="K36" t="s">
+        <v>339</v>
+      </c>
+      <c r="L36" t="s">
+        <v>340</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>341</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>342</v>
+      </c>
+      <c r="X36" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>345</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>346</v>
+      </c>
+      <c r="J37" t="s">
+        <v>347</v>
+      </c>
+      <c r="K37" t="s">
+        <v>348</v>
+      </c>
+      <c r="L37" t="s">
+        <v>349</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>341</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>350</v>
+      </c>
+      <c r="X37" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>353</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>354</v>
+      </c>
+      <c r="J38" t="s">
+        <v>355</v>
+      </c>
+      <c r="K38" t="s">
+        <v>356</v>
+      </c>
+      <c r="L38" t="s">
+        <v>357</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>358</v>
+      </c>
+      <c r="X38" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>361</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>362</v>
+      </c>
+      <c r="J39" t="s">
+        <v>363</v>
+      </c>
+      <c r="K39" t="s">
+        <v>364</v>
+      </c>
+      <c r="L39" t="s">
+        <v>365</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>366</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>367</v>
+      </c>
+      <c r="X39" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>370</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>371</v>
+      </c>
+      <c r="J40" t="s">
+        <v>372</v>
+      </c>
+      <c r="K40" t="s">
+        <v>373</v>
+      </c>
+      <c r="L40" t="s">
+        <v>374</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>375</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>376</v>
+      </c>
+      <c r="X40" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>379</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>380</v>
+      </c>
+      <c r="J41" t="s">
+        <v>381</v>
+      </c>
+      <c r="K41" t="s">
+        <v>382</v>
+      </c>
+      <c r="L41" t="s">
+        <v>383</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>384</v>
+      </c>
+      <c r="O41" t="s">
+        <v>70</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>385</v>
+      </c>
+      <c r="X41" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>388</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>389</v>
+      </c>
+      <c r="J42" t="s">
+        <v>390</v>
+      </c>
+      <c r="K42" t="s">
+        <v>391</v>
+      </c>
+      <c r="L42" t="s">
+        <v>392</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>393</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>394</v>
+      </c>
+      <c r="X42" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>397</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>398</v>
+      </c>
+      <c r="J43" t="s">
+        <v>399</v>
+      </c>
+      <c r="K43" t="s">
+        <v>400</v>
+      </c>
+      <c r="L43" t="s">
+        <v>401</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>402</v>
+      </c>
+      <c r="X43" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>405</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>406</v>
+      </c>
+      <c r="J44" t="s">
+        <v>407</v>
+      </c>
+      <c r="K44" t="s">
+        <v>408</v>
+      </c>
+      <c r="L44" t="s">
+        <v>409</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>410</v>
+      </c>
+      <c r="O44" t="s">
+        <v>70</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>411</v>
+      </c>
+      <c r="X44" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>414</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>415</v>
+      </c>
+      <c r="J45" t="s">
+        <v>416</v>
+      </c>
+      <c r="K45" t="s">
+        <v>417</v>
+      </c>
+      <c r="L45" t="s">
+        <v>418</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>410</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>419</v>
+      </c>
+      <c r="X45" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>422</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>423</v>
+      </c>
+      <c r="J46" t="s">
+        <v>424</v>
+      </c>
+      <c r="K46" t="s">
+        <v>425</v>
+      </c>
+      <c r="L46" t="s">
+        <v>426</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>410</v>
+      </c>
+      <c r="O46" t="s">
+        <v>70</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>427</v>
+      </c>
+      <c r="X46" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>430</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>431</v>
+      </c>
+      <c r="J47" t="s">
+        <v>432</v>
+      </c>
+      <c r="K47" t="s">
+        <v>433</v>
+      </c>
+      <c r="L47" t="s">
+        <v>434</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>435</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>436</v>
+      </c>
+      <c r="X47" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>439</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>440</v>
+      </c>
+      <c r="J48" t="s">
+        <v>441</v>
+      </c>
+      <c r="K48" t="s">
+        <v>442</v>
+      </c>
+      <c r="L48" t="s">
+        <v>443</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>435</v>
+      </c>
+      <c r="O48" t="s">
+        <v>444</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>436</v>
+      </c>
+      <c r="X48" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>446</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>447</v>
+      </c>
+      <c r="J49" t="s">
+        <v>448</v>
+      </c>
+      <c r="K49" t="s">
+        <v>449</v>
+      </c>
+      <c r="L49" t="s">
+        <v>450</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>451</v>
+      </c>
+      <c r="O49" t="s">
+        <v>70</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>452</v>
+      </c>
+      <c r="X49" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>455</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>456</v>
+      </c>
+      <c r="J50" t="s">
+        <v>457</v>
+      </c>
+      <c r="K50" t="s">
+        <v>458</v>
+      </c>
+      <c r="L50" t="s">
+        <v>459</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>460</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>461</v>
+      </c>
+      <c r="X50" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>464</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>465</v>
+      </c>
+      <c r="J51" t="s">
+        <v>466</v>
+      </c>
+      <c r="K51" t="s">
+        <v>467</v>
+      </c>
+      <c r="L51" t="s">
+        <v>468</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>460</v>
+      </c>
+      <c r="O51" t="s">
+        <v>70</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>469</v>
+      </c>
+      <c r="X51" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>472</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>473</v>
+      </c>
+      <c r="J52" t="s">
+        <v>474</v>
+      </c>
+      <c r="K52" t="s">
+        <v>475</v>
+      </c>
+      <c r="L52" t="s">
+        <v>476</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>477</v>
+      </c>
+      <c r="O52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>478</v>
+      </c>
+      <c r="X52" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>481</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>482</v>
+      </c>
+      <c r="J53" t="s">
+        <v>483</v>
+      </c>
+      <c r="K53" t="s">
+        <v>484</v>
+      </c>
+      <c r="L53" t="s">
+        <v>485</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>486</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>487</v>
+      </c>
+      <c r="X53" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>490</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>491</v>
+      </c>
+      <c r="J54" t="s">
+        <v>492</v>
+      </c>
+      <c r="K54" t="s">
+        <v>493</v>
+      </c>
+      <c r="L54" t="s">
+        <v>494</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>495</v>
+      </c>
+      <c r="O54" t="s">
+        <v>444</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>496</v>
+      </c>
+      <c r="X54" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>499</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>500</v>
+      </c>
+      <c r="J55" t="s">
+        <v>501</v>
+      </c>
+      <c r="K55" t="s">
+        <v>502</v>
+      </c>
+      <c r="L55" t="s">
+        <v>503</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>504</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>505</v>
+      </c>
+      <c r="X55" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>508</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>509</v>
+      </c>
+      <c r="J56" t="s">
+        <v>510</v>
+      </c>
+      <c r="K56" t="s">
+        <v>511</v>
+      </c>
+      <c r="L56" t="s">
+        <v>512</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>513</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>514</v>
+      </c>
+      <c r="X56" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>517</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>518</v>
+      </c>
+      <c r="J57" t="s">
+        <v>519</v>
+      </c>
+      <c r="K57" t="s">
+        <v>520</v>
+      </c>
+      <c r="L57" t="s">
+        <v>521</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>522</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>523</v>
+      </c>
+      <c r="X57" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>526</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>527</v>
+      </c>
+      <c r="J58" t="s">
+        <v>528</v>
+      </c>
+      <c r="K58" t="s">
+        <v>529</v>
+      </c>
+      <c r="L58" t="s">
+        <v>530</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>531</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>532</v>
+      </c>
+      <c r="X58" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>535</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>536</v>
+      </c>
+      <c r="J59" t="s">
+        <v>537</v>
+      </c>
+      <c r="K59" t="s">
+        <v>538</v>
+      </c>
+      <c r="L59" t="s">
+        <v>539</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>540</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>541</v>
+      </c>
+      <c r="X59" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>544</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>545</v>
+      </c>
+      <c r="J60" t="s">
+        <v>546</v>
+      </c>
+      <c r="K60" t="s">
+        <v>547</v>
+      </c>
+      <c r="L60" t="s">
+        <v>548</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>531</v>
+      </c>
+      <c r="O60" t="s">
+        <v>70</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>549</v>
+      </c>
+      <c r="X60" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>552</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>553</v>
+      </c>
+      <c r="J61" t="s">
+        <v>554</v>
+      </c>
+      <c r="K61" t="s">
+        <v>555</v>
+      </c>
+      <c r="L61" t="s">
+        <v>556</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>557</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>558</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>559</v>
+      </c>
+      <c r="J62" t="s">
+        <v>560</v>
+      </c>
+      <c r="K62" t="s">
+        <v>561</v>
+      </c>
+      <c r="L62" t="s">
+        <v>562</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>563</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>564</v>
+      </c>
+      <c r="X62" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>567</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>568</v>
+      </c>
+      <c r="J63" t="s">
+        <v>569</v>
+      </c>
+      <c r="K63" t="s">
+        <v>570</v>
+      </c>
+      <c r="L63" t="s">
+        <v>571</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>572</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>573</v>
+      </c>
+      <c r="X63" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>576</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>577</v>
+      </c>
+      <c r="J64" t="s">
+        <v>578</v>
+      </c>
+      <c r="K64" t="s">
+        <v>579</v>
+      </c>
+      <c r="L64" t="s">
+        <v>580</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>581</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>582</v>
+      </c>
+      <c r="X64" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>585</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>586</v>
+      </c>
+      <c r="J65" t="s">
+        <v>587</v>
+      </c>
+      <c r="K65" t="s">
+        <v>588</v>
+      </c>
+      <c r="L65" t="s">
+        <v>589</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>590</v>
+      </c>
+      <c r="O65" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>591</v>
+      </c>
+      <c r="X65" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>594</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>595</v>
+      </c>
+      <c r="J66" t="s">
+        <v>596</v>
+      </c>
+      <c r="K66" t="s">
+        <v>597</v>
+      </c>
+      <c r="L66" t="s">
+        <v>598</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>599</v>
+      </c>
+      <c r="O66" t="s">
+        <v>600</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>601</v>
+      </c>
+      <c r="X66" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>604</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>605</v>
+      </c>
+      <c r="J67" t="s">
+        <v>606</v>
+      </c>
+      <c r="K67" t="s">
+        <v>607</v>
+      </c>
+      <c r="L67" t="s">
+        <v>608</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>609</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>610</v>
+      </c>
+      <c r="X67" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>613</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>614</v>
+      </c>
+      <c r="J68" t="s">
+        <v>615</v>
+      </c>
+      <c r="K68" t="s">
+        <v>616</v>
+      </c>
+      <c r="L68" t="s">
+        <v>617</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>618</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>620</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>621</v>
+      </c>
+      <c r="J69" t="s">
+        <v>622</v>
+      </c>
+      <c r="K69" t="s">
+        <v>623</v>
+      </c>
+      <c r="L69" t="s">
+        <v>624</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>625</v>
+      </c>
+      <c r="O69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>626</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>627</v>
+      </c>
+      <c r="J70" t="s">
+        <v>628</v>
+      </c>
+      <c r="K70" t="s">
+        <v>629</v>
+      </c>
+      <c r="L70" t="s">
+        <v>630</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>625</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>631</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>632</v>
+      </c>
+      <c r="J71" t="s">
+        <v>633</v>
+      </c>
+      <c r="K71" t="s">
+        <v>634</v>
+      </c>
+      <c r="L71" t="s">
+        <v>635</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>581</v>
+      </c>
+      <c r="O71" t="s">
+        <v>600</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>636</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>637</v>
+      </c>
+      <c r="J72" t="s">
+        <v>638</v>
+      </c>
+      <c r="K72" t="s">
+        <v>639</v>
+      </c>
+      <c r="L72" t="s">
+        <v>640</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>641</v>
+      </c>
+      <c r="O72" t="s">
+        <v>444</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>642</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>643</v>
+      </c>
+      <c r="J73" t="s">
+        <v>644</v>
+      </c>
+      <c r="K73" t="s">
+        <v>94</v>
+      </c>
+      <c r="L73" t="s">
+        <v>645</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>581</v>
+      </c>
+      <c r="O73" t="s">
+        <v>70</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>646</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>647</v>
+      </c>
+      <c r="J74" t="s">
+        <v>648</v>
+      </c>
+      <c r="K74" t="s">
+        <v>649</v>
+      </c>
+      <c r="L74" t="s">
+        <v>650</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>651</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>652</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>653</v>
+      </c>
+      <c r="J75" t="s">
+        <v>654</v>
+      </c>
+      <c r="K75" t="s">
+        <v>655</v>
+      </c>
+      <c r="L75" t="s">
+        <v>656</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>651</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>657</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>658</v>
+      </c>
+      <c r="J76" t="s">
+        <v>659</v>
+      </c>
+      <c r="K76" t="s">
+        <v>660</v>
+      </c>
+      <c r="L76" t="s">
+        <v>661</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>662</v>
+      </c>
+      <c r="O76" t="s">
+        <v>70</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>663</v>
+      </c>
+      <c r="X76" t="s">
+        <v>664</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>666</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>667</v>
+      </c>
+      <c r="J77" t="s">
+        <v>668</v>
+      </c>
+      <c r="K77" t="s">
+        <v>669</v>
+      </c>
+      <c r="L77" t="s">
+        <v>670</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>662</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>671</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>672</v>
+      </c>
+      <c r="J78" t="s">
+        <v>673</v>
+      </c>
+      <c r="K78" t="s">
+        <v>674</v>
+      </c>
+      <c r="L78" t="s">
+        <v>675</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>676</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>677</v>
+      </c>
+      <c r="J79" t="s">
+        <v>678</v>
+      </c>
+      <c r="K79" t="s">
+        <v>679</v>
+      </c>
+      <c r="L79" t="s">
+        <v>680</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>681</v>
+      </c>
+      <c r="O79" t="s">
+        <v>60</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>683</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>684</v>
+      </c>
+      <c r="J80" t="s">
+        <v>685</v>
+      </c>
+      <c r="K80" t="s">
+        <v>686</v>
+      </c>
+      <c r="L80" t="s">
+        <v>687</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>688</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>689</v>
+      </c>
+      <c r="X80" t="s">
+        <v>690</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>692</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>693</v>
+      </c>
+      <c r="J81" t="s">
+        <v>694</v>
+      </c>
+      <c r="K81" t="s">
+        <v>695</v>
+      </c>
+      <c r="L81" t="s">
+        <v>696</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>697</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>698</v>
+      </c>
+      <c r="J82" t="s">
+        <v>699</v>
+      </c>
+      <c r="K82" t="s">
+        <v>700</v>
+      </c>
+      <c r="L82" t="s">
+        <v>701</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>702</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>703</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>704</v>
+      </c>
+      <c r="J83" t="s">
+        <v>705</v>
+      </c>
+      <c r="K83" t="s">
+        <v>706</v>
+      </c>
+      <c r="L83" t="s">
+        <v>707</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>708</v>
+      </c>
+      <c r="O83" t="s">
+        <v>70</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>709</v>
+      </c>
+      <c r="X83" t="s">
+        <v>710</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>712</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>713</v>
+      </c>
+      <c r="J84" t="s">
+        <v>714</v>
+      </c>
+      <c r="K84" t="s">
+        <v>715</v>
+      </c>
+      <c r="L84" t="s">
+        <v>716</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>708</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>709</v>
+      </c>
+      <c r="X84" t="s">
+        <v>710</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>718</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>719</v>
+      </c>
+      <c r="J85" t="s">
+        <v>720</v>
+      </c>
+      <c r="K85" t="s">
+        <v>721</v>
+      </c>
+      <c r="L85" t="s">
+        <v>722</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>708</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>723</v>
+      </c>
+      <c r="X85" t="s">
+        <v>724</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>726</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>727</v>
+      </c>
+      <c r="J86" t="s">
+        <v>728</v>
+      </c>
+      <c r="K86" t="s">
+        <v>729</v>
+      </c>
+      <c r="L86" t="s">
+        <v>730</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>731</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>732</v>
+      </c>
+      <c r="X86" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>735</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>736</v>
+      </c>
+      <c r="J87" t="s">
+        <v>737</v>
+      </c>
+      <c r="K87" t="s">
+        <v>738</v>
+      </c>
+      <c r="L87" t="s">
+        <v>739</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>740</v>
+      </c>
+      <c r="O87" t="s">
+        <v>70</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>732</v>
+      </c>
+      <c r="X87" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>742</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>743</v>
+      </c>
+      <c r="J88" t="s">
+        <v>744</v>
+      </c>
+      <c r="K88" t="s">
+        <v>745</v>
+      </c>
+      <c r="L88" t="s">
+        <v>746</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>708</v>
+      </c>
+      <c r="O88" t="s">
+        <v>70</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>732</v>
+      </c>
+      <c r="X88" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>748</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>749</v>
+      </c>
+      <c r="J89" t="s">
+        <v>750</v>
+      </c>
+      <c r="K89" t="s">
+        <v>751</v>
+      </c>
+      <c r="L89" t="s">
+        <v>752</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>731</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>753</v>
+      </c>
+      <c r="X89" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>756</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>757</v>
+      </c>
+      <c r="J90" t="s">
+        <v>758</v>
+      </c>
+      <c r="K90" t="s">
+        <v>759</v>
+      </c>
+      <c r="L90" t="s">
+        <v>760</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>740</v>
+      </c>
+      <c r="O90" t="s">
+        <v>70</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>761</v>
+      </c>
+      <c r="X90" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>763</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>764</v>
+      </c>
+      <c r="J91" t="s">
+        <v>765</v>
+      </c>
+      <c r="K91" t="s">
+        <v>766</v>
+      </c>
+      <c r="L91" t="s">
+        <v>767</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>740</v>
+      </c>
+      <c r="O91" t="s">
+        <v>70</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>769</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>770</v>
+      </c>
+      <c r="J92" t="s">
+        <v>771</v>
+      </c>
+      <c r="K92" t="s">
+        <v>772</v>
+      </c>
+      <c r="L92" t="s">
+        <v>773</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>774</v>
+      </c>
+      <c r="O92" t="s">
+        <v>60</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>775</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>776</v>
+      </c>
+      <c r="J93" t="s">
+        <v>777</v>
+      </c>
+      <c r="K93" t="s">
+        <v>778</v>
+      </c>
+      <c r="L93" t="s">
+        <v>779</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>780</v>
+      </c>
+      <c r="O93" t="s">
+        <v>70</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>782</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>783</v>
+      </c>
+      <c r="J94" t="s">
+        <v>784</v>
+      </c>
+      <c r="K94" t="s">
+        <v>785</v>
+      </c>
+      <c r="L94" t="s">
+        <v>786</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>787</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>788</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>789</v>
+      </c>
+      <c r="J95" t="s">
+        <v>790</v>
+      </c>
+      <c r="K95" t="s">
+        <v>791</v>
+      </c>
+      <c r="L95" t="s">
+        <v>792</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>793</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>794</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>795</v>
+      </c>
+      <c r="J96" t="s">
+        <v>796</v>
+      </c>
+      <c r="K96" t="s">
+        <v>797</v>
+      </c>
+      <c r="L96" t="s">
+        <v>798</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>793</v>
+      </c>
+      <c r="O96" t="s">
+        <v>60</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>799</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>800</v>
+      </c>
+      <c r="J97" t="s">
+        <v>801</v>
+      </c>
+      <c r="K97" t="s">
+        <v>802</v>
+      </c>
+      <c r="L97" t="s">
+        <v>803</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>804</v>
+      </c>
+      <c r="O97" t="s">
+        <v>60</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>805</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>806</v>
+      </c>
+      <c r="J98" t="s">
+        <v>807</v>
+      </c>
+      <c r="K98" t="s">
+        <v>808</v>
+      </c>
+      <c r="L98" t="s">
+        <v>809</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>810</v>
+      </c>
+      <c r="O98" t="s">
+        <v>70</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>811</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>812</v>
+      </c>
+      <c r="J99" t="s">
+        <v>813</v>
+      </c>
+      <c r="K99" t="s">
+        <v>814</v>
+      </c>
+      <c r="L99" t="s">
+        <v>815</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>810</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>816</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>817</v>
+      </c>
+      <c r="J100" t="s">
+        <v>818</v>
+      </c>
+      <c r="K100" t="s">
+        <v>819</v>
+      </c>
+      <c r="L100" t="s">
+        <v>820</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>810</v>
+      </c>
+      <c r="O100" t="s">
+        <v>60</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>821</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>822</v>
+      </c>
+      <c r="J101" t="s">
+        <v>823</v>
+      </c>
+      <c r="K101" t="s">
+        <v>824</v>
+      </c>
+      <c r="L101" t="s">
+        <v>825</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>826</v>
+      </c>
+      <c r="O101" t="s">
+        <v>70</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>827</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>828</v>
+      </c>
+      <c r="J102" t="s">
+        <v>829</v>
+      </c>
+      <c r="K102" t="s">
+        <v>830</v>
+      </c>
+      <c r="L102" t="s">
+        <v>831</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>826</v>
+      </c>
+      <c r="O102" t="s">
+        <v>60</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>832</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>833</v>
+      </c>
+      <c r="J103" t="s">
+        <v>834</v>
+      </c>
+      <c r="K103" t="s">
+        <v>835</v>
+      </c>
+      <c r="L103" t="s">
+        <v>836</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>826</v>
+      </c>
+      <c r="O103" t="s">
+        <v>444</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>837</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>838</v>
+      </c>
+      <c r="J104" t="s">
+        <v>839</v>
+      </c>
+      <c r="K104" t="s">
+        <v>840</v>
+      </c>
+      <c r="L104" t="s">
+        <v>841</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>842</v>
+      </c>
+      <c r="O104" t="s">
+        <v>60</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>843</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>844</v>
+      </c>
+      <c r="J105" t="s">
+        <v>845</v>
+      </c>
+      <c r="K105" t="s">
+        <v>846</v>
+      </c>
+      <c r="L105" t="s">
+        <v>847</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>848</v>
+      </c>
+      <c r="O105" t="s">
+        <v>60</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>850</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>851</v>
+      </c>
+      <c r="J106" t="s">
+        <v>852</v>
+      </c>
+      <c r="K106" t="s">
+        <v>853</v>
+      </c>
+      <c r="L106" t="s">
+        <v>854</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>855</v>
+      </c>
+      <c r="O106" t="s">
+        <v>60</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>856</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>857</v>
+      </c>
+      <c r="J107" t="s">
+        <v>858</v>
+      </c>
+      <c r="K107" t="s">
+        <v>859</v>
+      </c>
+      <c r="L107" t="s">
+        <v>860</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>855</v>
+      </c>
+      <c r="O107" t="s">
+        <v>60</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>861</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>862</v>
+      </c>
+      <c r="J108" t="s">
+        <v>863</v>
+      </c>
+      <c r="K108" t="s">
+        <v>864</v>
+      </c>
+      <c r="L108" t="s">
+        <v>865</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>855</v>
+      </c>
+      <c r="O108" t="s">
+        <v>60</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>866</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>867</v>
+      </c>
+      <c r="J109" t="s">
+        <v>868</v>
+      </c>
+      <c r="K109" t="s">
+        <v>869</v>
+      </c>
+      <c r="L109" t="s">
+        <v>870</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>871</v>
+      </c>
+      <c r="O109" t="s">
+        <v>70</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>5</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>872</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>873</v>
+      </c>
+      <c r="J110" t="s">
+        <v>874</v>
+      </c>
+      <c r="K110" t="s">
+        <v>875</v>
+      </c>
+      <c r="L110" t="s">
+        <v>876</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>877</v>
+      </c>
+      <c r="O110" t="s">
+        <v>60</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>59735</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>879</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>880</v>
+      </c>
+      <c r="J111" t="s">
+        <v>881</v>
+      </c>
+      <c r="K111" t="s">
+        <v>882</v>
+      </c>
+      <c r="L111" t="s">
+        <v>883</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>884</v>
+      </c>
+      <c r="O111" t="s">
+        <v>70</v>
+      </c>
+      <c r="P111" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>4</v>
+      </c>
+      <c r="R111" t="n">
+        <v>4</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>883</v>
       </c>
     </row>
   </sheetData>
